--- a/XY/data/使用数据.xlsx
+++ b/XY/data/使用数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1996Q1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="115">
   <si>
     <t>GDP增长率</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>固定资产投资价格指数</t>
-  </si>
-  <si>
-    <t>频率</t>
   </si>
   <si>
     <t>数据个数</t>
@@ -457,6 +454,10 @@
     <t>企业部门杠杆率缺口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -466,7 +467,7 @@
     <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,14 +498,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -532,7 +525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -547,9 +540,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -888,21 +878,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="17" max="17" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -1080,144 +1071,144 @@
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
       <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>30</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>32</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" t="s">
-        <v>55</v>
-      </c>
       <c r="AE2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" t="s">
-        <v>66</v>
-      </c>
       <c r="AI2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>69</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>70</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>71</v>
       </c>
-      <c r="AM2" t="s">
-        <v>72</v>
-      </c>
       <c r="AO2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="AQ2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW2" t="s">
         <v>102</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AX2" t="s">
         <v>104</v>
       </c>
-      <c r="AU2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>105</v>
       </c>
-      <c r="AY2" t="s">
-        <v>106</v>
-      </c>
       <c r="AZ2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA2" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>35155</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="3">
@@ -1337,7 +1328,7 @@
       <c r="AO3" s="4">
         <v>101.27</v>
       </c>
-      <c r="AP3" s="11">
+      <c r="AP3" s="10">
         <v>-25.1</v>
       </c>
       <c r="AQ3">
@@ -1378,7 +1369,7 @@
       <c r="A4" s="2">
         <v>35246</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -1498,7 +1489,7 @@
       <c r="AO4" s="4">
         <v>100.89</v>
       </c>
-      <c r="AP4" s="11">
+      <c r="AP4" s="10">
         <v>40.4</v>
       </c>
       <c r="AQ4">
@@ -1539,7 +1530,7 @@
       <c r="A5" s="2">
         <v>35338</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -1659,7 +1650,7 @@
       <c r="AO5" s="4">
         <v>98.826666666666668</v>
       </c>
-      <c r="AP5" s="11">
+      <c r="AP5" s="10">
         <v>24</v>
       </c>
       <c r="AQ5">
@@ -1700,7 +1691,7 @@
       <c r="A6" s="2">
         <v>35430</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="3">
@@ -1820,7 +1811,7 @@
       <c r="AO6" s="4">
         <v>97.583333333333329</v>
       </c>
-      <c r="AP6" s="11">
+      <c r="AP6" s="10">
         <v>26.4</v>
       </c>
       <c r="AQ6">
@@ -1861,7 +1852,7 @@
       <c r="A7" s="2">
         <v>35520</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="3">
@@ -1981,7 +1972,7 @@
       <c r="AO7" s="4">
         <v>98.74</v>
       </c>
-      <c r="AP7" s="11">
+      <c r="AP7" s="10">
         <v>9.1</v>
       </c>
       <c r="AQ7">
@@ -2022,7 +2013,7 @@
       <c r="A8" s="2">
         <v>35611</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
       <c r="C8" s="3">
@@ -2142,7 +2133,7 @@
       <c r="AO8" s="4">
         <v>98.08</v>
       </c>
-      <c r="AP8" s="11">
+      <c r="AP8" s="10">
         <v>8.1</v>
       </c>
       <c r="AQ8">
@@ -2183,7 +2174,7 @@
       <c r="A9" s="2">
         <v>35703</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
       <c r="C9" s="3">
@@ -2303,7 +2294,7 @@
       <c r="AO9" s="4">
         <v>98.306666666666658</v>
       </c>
-      <c r="AP9" s="11">
+      <c r="AP9" s="10">
         <v>11.7</v>
       </c>
       <c r="AQ9">
@@ -2344,7 +2335,7 @@
       <c r="A10" s="2">
         <v>35795</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
       <c r="C10" s="3">
@@ -2464,7 +2455,7 @@
       <c r="AO10" s="4">
         <v>98.55</v>
       </c>
-      <c r="AP10" s="11">
+      <c r="AP10" s="10">
         <v>3.9</v>
       </c>
       <c r="AQ10">
@@ -2505,7 +2496,7 @@
       <c r="A11" s="2">
         <v>35885</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>0</v>
       </c>
       <c r="C11" s="3">
@@ -2625,7 +2616,7 @@
       <c r="AO11" s="4">
         <v>98.88</v>
       </c>
-      <c r="AP11" s="11">
+      <c r="AP11" s="10">
         <v>40.6</v>
       </c>
       <c r="AQ11">
@@ -2666,7 +2657,7 @@
       <c r="A12" s="2">
         <v>35976</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>0</v>
       </c>
       <c r="C12" s="3">
@@ -2786,7 +2777,7 @@
       <c r="AO12" s="4">
         <v>101.81</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AP12" s="10">
         <v>51.7</v>
       </c>
       <c r="AQ12">
@@ -2827,7 +2818,7 @@
       <c r="A13" s="2">
         <v>36068</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>0</v>
       </c>
       <c r="C13" s="3">
@@ -2947,7 +2938,7 @@
       <c r="AO13" s="4">
         <v>103.71333333333332</v>
       </c>
-      <c r="AP13" s="11">
+      <c r="AP13" s="10">
         <v>51.7</v>
       </c>
       <c r="AQ13">
@@ -2988,7 +2979,7 @@
       <c r="A14" s="2">
         <v>36160</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>0</v>
       </c>
       <c r="C14" s="3">
@@ -3108,7 +3099,7 @@
       <c r="AO14" s="4">
         <v>103.65333333333332</v>
       </c>
-      <c r="AP14" s="11">
+      <c r="AP14" s="10">
         <v>34.799999999999997</v>
       </c>
       <c r="AQ14">
@@ -3149,7 +3140,7 @@
       <c r="A15" s="2">
         <v>36250</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>0</v>
       </c>
       <c r="C15" s="3">
@@ -3269,7 +3260,7 @@
       <c r="AO15" s="4">
         <v>104.69</v>
       </c>
-      <c r="AP15" s="11">
+      <c r="AP15" s="10">
         <v>28.1</v>
       </c>
       <c r="AQ15">
@@ -3310,7 +3301,7 @@
       <c r="A16" s="2">
         <v>36341</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>0</v>
       </c>
       <c r="C16" s="3">
@@ -3430,7 +3421,7 @@
       <c r="AO16" s="4">
         <v>102.96</v>
       </c>
-      <c r="AP16" s="11">
+      <c r="AP16" s="10">
         <v>13.3</v>
       </c>
       <c r="AQ16">
@@ -3471,7 +3462,7 @@
       <c r="A17" s="2">
         <v>36433</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>0</v>
       </c>
       <c r="C17" s="3">
@@ -3591,7 +3582,7 @@
       <c r="AO17" s="4">
         <v>101.28666666666668</v>
       </c>
-      <c r="AP17" s="11">
+      <c r="AP17" s="10">
         <v>9.9</v>
       </c>
       <c r="AQ17">
@@ -3632,7 +3623,7 @@
       <c r="A18" s="2">
         <v>36525</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>0</v>
       </c>
       <c r="C18" s="3">
@@ -3752,7 +3743,7 @@
       <c r="AO18" s="4">
         <v>101.14666666666666</v>
       </c>
-      <c r="AP18" s="11">
+      <c r="AP18" s="10">
         <v>25.2</v>
       </c>
       <c r="AQ18">
@@ -3793,7 +3784,7 @@
       <c r="A19" s="2">
         <v>36616</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>0</v>
       </c>
       <c r="C19" s="3">
@@ -3913,7 +3904,7 @@
       <c r="AO19" s="4">
         <v>102.21</v>
       </c>
-      <c r="AP19" s="11">
+      <c r="AP19" s="10">
         <v>35.700000000000003</v>
       </c>
       <c r="AQ19">
@@ -3954,7 +3945,7 @@
       <c r="A20" s="2">
         <v>36707</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>0</v>
       </c>
       <c r="C20" s="3">
@@ -4074,7 +4065,7 @@
       <c r="AO20" s="4">
         <v>102.24666666666667</v>
       </c>
-      <c r="AP20" s="11">
+      <c r="AP20" s="10">
         <v>36.700000000000003</v>
       </c>
       <c r="AQ20">
@@ -4115,7 +4106,7 @@
       <c r="A21" s="2">
         <v>36799</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>0</v>
       </c>
       <c r="C21" s="3">
@@ -4235,7 +4226,7 @@
       <c r="AO21" s="4">
         <v>103.25999999999999</v>
       </c>
-      <c r="AP21" s="11">
+      <c r="AP21" s="10">
         <v>38.9</v>
       </c>
       <c r="AQ21">
@@ -4276,7 +4267,7 @@
       <c r="A22" s="2">
         <v>36891</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>0</v>
       </c>
       <c r="C22" s="3">
@@ -4396,7 +4387,7 @@
       <c r="AO22" s="4">
         <v>103.70333333333333</v>
       </c>
-      <c r="AP22" s="11">
+      <c r="AP22" s="10">
         <v>26.9</v>
       </c>
       <c r="AQ22">
@@ -4437,7 +4428,7 @@
       <c r="A23" s="2">
         <v>36981</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>0</v>
       </c>
       <c r="C23" s="3">
@@ -4557,7 +4548,7 @@
       <c r="AO23" s="4">
         <v>105.46333333333332</v>
       </c>
-      <c r="AP23" s="11">
+      <c r="AP23" s="10">
         <v>31.4</v>
       </c>
       <c r="AQ23">
@@ -4598,7 +4589,7 @@
       <c r="A24" s="2">
         <v>37072</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>0</v>
       </c>
       <c r="C24" s="3">
@@ -4718,7 +4709,7 @@
       <c r="AO24" s="4">
         <v>106.46666666666665</v>
       </c>
-      <c r="AP24" s="11">
+      <c r="AP24" s="10">
         <v>25.9</v>
       </c>
       <c r="AQ24">
@@ -4759,7 +4750,7 @@
       <c r="A25" s="2">
         <v>37164</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>0</v>
       </c>
       <c r="C25" s="3">
@@ -4879,7 +4870,7 @@
       <c r="AO25" s="4">
         <v>106.21666666666665</v>
       </c>
-      <c r="AP25" s="11">
+      <c r="AP25" s="10">
         <v>26.6</v>
       </c>
       <c r="AQ25">
@@ -4920,7 +4911,7 @@
       <c r="A26" s="2">
         <v>37256</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>0</v>
       </c>
       <c r="C26" s="3">
@@ -5040,7 +5031,7 @@
       <c r="AO26" s="4">
         <v>105.33333333333333</v>
       </c>
-      <c r="AP26" s="11">
+      <c r="AP26" s="10">
         <v>22.3</v>
       </c>
       <c r="AQ26">
@@ -5081,7 +5072,7 @@
       <c r="A27" s="2">
         <v>37346</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>1</v>
       </c>
       <c r="C27" s="3">
@@ -5201,7 +5192,7 @@
       <c r="AO27" s="4">
         <v>103.77</v>
       </c>
-      <c r="AP27" s="11">
+      <c r="AP27" s="10">
         <v>17.7</v>
       </c>
       <c r="AQ27">
@@ -5242,7 +5233,7 @@
       <c r="A28" s="2">
         <v>37437</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>1</v>
       </c>
       <c r="C28" s="3">
@@ -5362,7 +5353,7 @@
       <c r="AO28" s="4">
         <v>104.54</v>
       </c>
-      <c r="AP28" s="11">
+      <c r="AP28" s="10">
         <v>22.5</v>
       </c>
       <c r="AQ28">
@@ -5403,7 +5394,7 @@
       <c r="A29" s="2">
         <v>37529</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>1</v>
       </c>
       <c r="C29" s="3">
@@ -5523,7 +5514,7 @@
       <c r="AO29" s="4">
         <v>104.57333333333334</v>
       </c>
-      <c r="AP29" s="11">
+      <c r="AP29" s="10">
         <v>24</v>
       </c>
       <c r="AQ29">
@@ -5564,7 +5555,7 @@
       <c r="A30" s="2">
         <v>37621</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>1</v>
       </c>
       <c r="C30" s="3">
@@ -5684,7 +5675,7 @@
       <c r="AO30" s="4">
         <v>104.74333333333334</v>
       </c>
-      <c r="AP30" s="11">
+      <c r="AP30" s="10">
         <v>20.2</v>
       </c>
       <c r="AQ30">
@@ -5725,7 +5716,7 @@
       <c r="A31" s="2">
         <v>37711</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>1</v>
       </c>
       <c r="C31" s="3">
@@ -5845,7 +5836,7 @@
       <c r="AO31" s="4">
         <v>108.45666666666666</v>
       </c>
-      <c r="AP31" s="11">
+      <c r="AP31" s="10">
         <v>45.2</v>
       </c>
       <c r="AQ31">
@@ -5886,7 +5877,7 @@
       <c r="A32" s="2">
         <v>37802</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>1</v>
       </c>
       <c r="C32" s="3">
@@ -6006,7 +5997,7 @@
       <c r="AO32" s="4">
         <v>106.73666666666668</v>
       </c>
-      <c r="AP32" s="11">
+      <c r="AP32" s="10">
         <v>37.4</v>
       </c>
       <c r="AQ32">
@@ -6047,7 +6038,7 @@
       <c r="A33" s="2">
         <v>37894</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>1</v>
       </c>
       <c r="C33" s="3">
@@ -6167,7 +6158,7 @@
       <c r="AO33" s="4">
         <v>106.93666666666667</v>
       </c>
-      <c r="AP33" s="11">
+      <c r="AP33" s="10">
         <v>35.9</v>
       </c>
       <c r="AQ33">
@@ -6208,7 +6199,7 @@
       <c r="A34" s="2">
         <v>37986</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>1</v>
       </c>
       <c r="C34" s="3">
@@ -6328,7 +6319,7 @@
       <c r="AO34" s="4">
         <v>106.43666666666667</v>
       </c>
-      <c r="AP34" s="11">
+      <c r="AP34" s="10">
         <v>29.1</v>
       </c>
       <c r="AQ34">
@@ -6369,7 +6360,7 @@
       <c r="A35" s="2">
         <v>38077</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>0</v>
       </c>
       <c r="C35" s="3">
@@ -6489,7 +6480,7 @@
       <c r="AO35" s="4">
         <v>106.42666666666668</v>
       </c>
-      <c r="AP35" s="11">
+      <c r="AP35" s="10">
         <v>35.4</v>
       </c>
       <c r="AQ35">
@@ -6530,7 +6521,7 @@
       <c r="A36" s="2">
         <v>38168</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>0</v>
       </c>
       <c r="C36" s="3">
@@ -6650,7 +6641,7 @@
       <c r="AO36" s="4">
         <v>105.09333333333335</v>
       </c>
-      <c r="AP36" s="11">
+      <c r="AP36" s="10">
         <v>26.3</v>
       </c>
       <c r="AQ36">
@@ -6691,7 +6682,7 @@
       <c r="A37" s="2">
         <v>38260</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>0</v>
       </c>
       <c r="C37" s="3">
@@ -6811,7 +6802,7 @@
       <c r="AO37" s="4">
         <v>104.89666666666666</v>
       </c>
-      <c r="AP37" s="11">
+      <c r="AP37" s="10">
         <v>19.3</v>
       </c>
       <c r="AQ37">
@@ -6852,7 +6843,7 @@
       <c r="A38" s="2">
         <v>38352</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>0</v>
       </c>
       <c r="C38" s="3">
@@ -6972,7 +6963,7 @@
       <c r="AO38" s="4">
         <v>104.19333333333334</v>
       </c>
-      <c r="AP38" s="11">
+      <c r="AP38" s="10">
         <v>13.7</v>
       </c>
       <c r="AQ38">
@@ -7013,7 +7004,7 @@
       <c r="A39" s="2">
         <v>38442</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>0</v>
       </c>
       <c r="C39" s="3">
@@ -7133,7 +7124,7 @@
       <c r="AO39" s="4">
         <v>102.75333333333333</v>
       </c>
-      <c r="AP39" s="11">
+      <c r="AP39" s="10">
         <v>20.3</v>
       </c>
       <c r="AQ39">
@@ -7174,7 +7165,7 @@
       <c r="A40" s="2">
         <v>38533</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>0</v>
       </c>
       <c r="C40" s="3">
@@ -7294,7 +7285,7 @@
       <c r="AO40" s="4">
         <v>102.17</v>
       </c>
-      <c r="AP40" s="11">
+      <c r="AP40" s="10">
         <v>14</v>
       </c>
       <c r="AQ40">
@@ -7335,7 +7326,7 @@
       <c r="A41" s="2">
         <v>38625</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>0</v>
       </c>
       <c r="C41" s="3">
@@ -7455,7 +7446,7 @@
       <c r="AO41" s="4">
         <v>101.71666666666668</v>
       </c>
-      <c r="AP41" s="11">
+      <c r="AP41" s="10">
         <v>23</v>
       </c>
       <c r="AQ41">
@@ -7496,7 +7487,7 @@
       <c r="A42" s="2">
         <v>38717</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>0</v>
       </c>
       <c r="C42" s="3">
@@ -7616,7 +7607,7 @@
       <c r="AO42" s="4">
         <v>100.77266666666667</v>
       </c>
-      <c r="AP42" s="11">
+      <c r="AP42" s="10">
         <v>15.7</v>
       </c>
       <c r="AQ42">
@@ -7657,7 +7648,7 @@
       <c r="A43" s="2">
         <v>38807</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>1</v>
       </c>
       <c r="C43" s="3">
@@ -7777,7 +7768,7 @@
       <c r="AO43" s="4">
         <v>101.08999999999999</v>
       </c>
-      <c r="AP43" s="11">
+      <c r="AP43" s="10">
         <v>10.199999999999999</v>
       </c>
       <c r="AQ43">
@@ -7818,7 +7809,7 @@
       <c r="A44" s="2">
         <v>38898</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>1</v>
       </c>
       <c r="C44" s="3">
@@ -7938,7 +7929,7 @@
       <c r="AO44" s="4">
         <v>102.13666666666667</v>
       </c>
-      <c r="AP44" s="11">
+      <c r="AP44" s="10">
         <v>16.5</v>
       </c>
       <c r="AQ44">
@@ -7979,7 +7970,7 @@
       <c r="A45" s="2">
         <v>38990</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>1</v>
       </c>
       <c r="C45" s="3">
@@ -8099,7 +8090,7 @@
       <c r="AO45" s="4">
         <v>103.32</v>
       </c>
-      <c r="AP45" s="11">
+      <c r="AP45" s="10">
         <v>10.5</v>
       </c>
       <c r="AQ45">
@@ -8140,7 +8131,7 @@
       <c r="A46" s="2">
         <v>39082</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>1</v>
       </c>
       <c r="C46" s="3">
@@ -8260,7 +8251,7 @@
       <c r="AO46" s="4">
         <v>103.42666666666666</v>
       </c>
-      <c r="AP46" s="11">
+      <c r="AP46" s="10">
         <v>12.2</v>
       </c>
       <c r="AQ46">
@@ -8301,7 +8292,7 @@
       <c r="A47" s="2">
         <v>39172</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>1</v>
       </c>
       <c r="C47" s="3">
@@ -8421,7 +8412,7 @@
       <c r="AO47" s="4">
         <v>101.80666666666666</v>
       </c>
-      <c r="AP47" s="11">
+      <c r="AP47" s="10">
         <v>12.8</v>
       </c>
       <c r="AQ47">
@@ -8462,7 +8453,7 @@
       <c r="A48" s="2">
         <v>39263</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>1</v>
       </c>
       <c r="C48" s="3">
@@ -8582,7 +8573,7 @@
       <c r="AO48" s="4">
         <v>103.2</v>
       </c>
-      <c r="AP48" s="11">
+      <c r="AP48" s="10">
         <v>21.5</v>
       </c>
       <c r="AQ48">
@@ -8623,7 +8614,7 @@
       <c r="A49" s="2">
         <v>39355</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>1</v>
       </c>
       <c r="C49" s="3">
@@ -8743,7 +8734,7 @@
       <c r="AO49" s="4">
         <v>104.49000000000001</v>
       </c>
-      <c r="AP49" s="11">
+      <c r="AP49" s="10">
         <v>32.1</v>
       </c>
       <c r="AQ49">
@@ -8784,7 +8775,7 @@
       <c r="A50" s="2">
         <v>39447</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>1</v>
       </c>
       <c r="C50" s="3">
@@ -8904,7 +8895,7 @@
       <c r="AO50" s="4">
         <v>106.25999999999999</v>
       </c>
-      <c r="AP50" s="11">
+      <c r="AP50" s="10">
         <v>23.2</v>
       </c>
       <c r="AQ50">
@@ -8945,7 +8936,7 @@
       <c r="A51" s="2">
         <v>39538</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>0</v>
       </c>
       <c r="C51" s="3">
@@ -9065,7 +9056,7 @@
       <c r="AO51" s="4">
         <v>105.46</v>
       </c>
-      <c r="AP51" s="11">
+      <c r="AP51" s="10">
         <v>-1.4</v>
       </c>
       <c r="AQ51">
@@ -9106,7 +9097,7 @@
       <c r="A52" s="2">
         <v>39629</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>0</v>
       </c>
       <c r="C52" s="3">
@@ -9226,7 +9217,7 @@
       <c r="AO52" s="4">
         <v>103.49666666666667</v>
       </c>
-      <c r="AP52" s="11">
+      <c r="AP52" s="10">
         <v>-7.2</v>
       </c>
       <c r="AQ52">
@@ -9267,7 +9258,7 @@
       <c r="A53" s="2">
         <v>39721</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>0</v>
       </c>
       <c r="C53" s="3">
@@ -9387,7 +9378,7 @@
       <c r="AO53" s="4">
         <v>101.76333333333332</v>
       </c>
-      <c r="AP53" s="11">
+      <c r="AP53" s="10">
         <v>-14.9</v>
       </c>
       <c r="AQ53">
@@ -9428,7 +9419,7 @@
       <c r="A54" s="2">
         <v>39813</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>0</v>
       </c>
       <c r="C54" s="3">
@@ -9548,7 +9539,7 @@
       <c r="AO54" s="4">
         <v>98.199999999999989</v>
       </c>
-      <c r="AP54" s="11">
+      <c r="AP54" s="10">
         <v>-19.7</v>
       </c>
       <c r="AQ54">
@@ -9589,7 +9580,7 @@
       <c r="A55" s="2">
         <v>39903</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>0</v>
       </c>
       <c r="C55" s="3">
@@ -9709,7 +9700,7 @@
       <c r="AO55" s="4">
         <v>94.8</v>
       </c>
-      <c r="AP55" s="11">
+      <c r="AP55" s="10">
         <v>8.1999999999999993</v>
       </c>
       <c r="AQ55">
@@ -9750,7 +9741,7 @@
       <c r="A56" s="2">
         <v>39994</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>0</v>
       </c>
       <c r="C56" s="3">
@@ -9870,7 +9861,7 @@
       <c r="AO56" s="4">
         <v>95.75</v>
       </c>
-      <c r="AP56" s="11">
+      <c r="AP56" s="10">
         <v>31.7</v>
       </c>
       <c r="AQ56">
@@ -9911,7 +9902,7 @@
       <c r="A57" s="2">
         <v>40086</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>1</v>
       </c>
       <c r="C57" s="3">
@@ -10031,7 +10022,7 @@
       <c r="AO57" s="4">
         <v>99.723333333333343</v>
       </c>
-      <c r="AP57" s="11">
+      <c r="AP57" s="10">
         <v>44.8</v>
       </c>
       <c r="AQ57">
@@ -10072,7 +10063,7 @@
       <c r="A58" s="2">
         <v>40178</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>1</v>
       </c>
       <c r="C58" s="3">
@@ -10192,7 +10183,7 @@
       <c r="AO58" s="4">
         <v>102.82333333333334</v>
       </c>
-      <c r="AP58" s="11">
+      <c r="AP58" s="10">
         <v>43.6</v>
       </c>
       <c r="AQ58">
@@ -10233,7 +10224,7 @@
       <c r="A59" s="2">
         <v>40268</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>1</v>
       </c>
       <c r="C59" s="3">
@@ -10353,7 +10344,7 @@
       <c r="AO59" s="4">
         <v>105.68</v>
       </c>
-      <c r="AP59" s="11">
+      <c r="AP59" s="10">
         <v>35.799999999999997</v>
       </c>
       <c r="AQ59">
@@ -10394,7 +10385,7 @@
       <c r="A60" s="2">
         <v>40359</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <v>1</v>
       </c>
       <c r="C60" s="3">
@@ -10514,7 +10505,7 @@
       <c r="AO60" s="4">
         <v>105.26333333333332</v>
       </c>
-      <c r="AP60" s="11">
+      <c r="AP60" s="10">
         <v>15.4</v>
       </c>
       <c r="AQ60">
@@ -10555,7 +10546,7 @@
       <c r="A61" s="2">
         <v>40451</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="11">
         <v>1</v>
       </c>
       <c r="C61" s="3">
@@ -10675,7 +10666,7 @@
       <c r="AO61" s="4">
         <v>104.11666666666666</v>
       </c>
-      <c r="AP61" s="11">
+      <c r="AP61" s="10">
         <v>8.1999999999999993</v>
       </c>
       <c r="AQ61">
@@ -10716,7 +10707,7 @@
       <c r="A62" s="2">
         <v>40543</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="11">
         <v>1</v>
       </c>
       <c r="C62" s="3">
@@ -10836,7 +10827,7 @@
       <c r="AO62" s="4">
         <v>102.85333333333334</v>
       </c>
-      <c r="AP62" s="11">
+      <c r="AP62" s="10">
         <v>10.1</v>
       </c>
       <c r="AQ62">
@@ -10877,7 +10868,7 @@
       <c r="A63" s="2">
         <v>40633</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="11">
         <v>1</v>
       </c>
       <c r="C63" s="3">
@@ -10997,7 +10988,7 @@
       <c r="AO63" s="4">
         <v>102.94</v>
       </c>
-      <c r="AP63" s="11">
+      <c r="AP63" s="10">
         <v>14.9</v>
       </c>
       <c r="AQ63">
@@ -11038,7 +11029,7 @@
       <c r="A64" s="2">
         <v>40724</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <v>1</v>
       </c>
       <c r="C64" s="3">
@@ -11158,7 +11149,7 @@
       <c r="AO64" s="4">
         <v>102.71333333333332</v>
       </c>
-      <c r="AP64" s="11">
+      <c r="AP64" s="10">
         <v>12.9</v>
       </c>
       <c r="AQ64">
@@ -11199,7 +11190,7 @@
       <c r="A65" s="2">
         <v>40816</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="11">
         <v>0</v>
       </c>
       <c r="C65" s="3">
@@ -11319,7 +11310,7 @@
       <c r="AO65" s="4">
         <v>101.00999999999999</v>
       </c>
-      <c r="AP65" s="11">
+      <c r="AP65" s="10">
         <v>12.9</v>
       </c>
       <c r="AQ65">
@@ -11360,7 +11351,7 @@
       <c r="A66" s="2">
         <v>40908</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="11">
         <v>0</v>
       </c>
       <c r="C66" s="3">
@@ -11480,7 +11471,7 @@
       <c r="AO66" s="4">
         <v>99.676666666666662</v>
       </c>
-      <c r="AP66" s="11">
+      <c r="AP66" s="10">
         <v>4.9000000000000004</v>
       </c>
       <c r="AQ66">
@@ -11521,7 +11512,7 @@
       <c r="A67" s="2">
         <v>40999</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="11">
         <v>0</v>
       </c>
       <c r="C67" s="3">
@@ -11641,7 +11632,7 @@
       <c r="AO67" s="4">
         <v>97.405000000000001</v>
       </c>
-      <c r="AP67" s="11">
+      <c r="AP67" s="10">
         <v>-13.6</v>
       </c>
       <c r="AQ67">
@@ -11682,7 +11673,7 @@
       <c r="A68" s="2">
         <v>41090</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="11">
         <v>0</v>
       </c>
       <c r="C68" s="3">
@@ -11802,7 +11793,7 @@
       <c r="AO68" s="4">
         <v>95.076666666666668</v>
       </c>
-      <c r="AP68" s="11">
+      <c r="AP68" s="10">
         <v>-10</v>
       </c>
       <c r="AQ68">
@@ -11843,7 +11834,7 @@
       <c r="A69" s="2">
         <v>41182</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="11">
         <v>0</v>
       </c>
       <c r="C69" s="3">
@@ -11963,7 +11954,7 @@
       <c r="AO69" s="4">
         <v>94.533333333333317</v>
       </c>
-      <c r="AP69" s="11">
+      <c r="AP69" s="10">
         <v>-4</v>
       </c>
       <c r="AQ69">
@@ -12004,7 +11995,7 @@
       <c r="A70" s="2">
         <v>41274</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="11">
         <v>0</v>
       </c>
       <c r="C70" s="3">
@@ -12124,7 +12115,7 @@
       <c r="AO70" s="4">
         <v>95.286666666666676</v>
       </c>
-      <c r="AP70" s="11">
+      <c r="AP70" s="10">
         <v>1.8</v>
       </c>
       <c r="AQ70">
@@ -12165,7 +12156,7 @@
       <c r="A71" s="2">
         <v>41364</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="11">
         <v>0</v>
       </c>
       <c r="C71" s="3">
@@ -12285,7 +12276,7 @@
       <c r="AO71" s="4">
         <v>97.740000000000009</v>
       </c>
-      <c r="AP71" s="11">
+      <c r="AP71" s="10">
         <v>37.1</v>
       </c>
       <c r="AQ71">
@@ -12326,7 +12317,7 @@
       <c r="A72" s="2">
         <v>41455</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="11">
         <v>0</v>
       </c>
       <c r="C72" s="3">
@@ -12446,7 +12437,7 @@
       <c r="AO72" s="4">
         <v>97.300000000000011</v>
       </c>
-      <c r="AP72" s="11">
+      <c r="AP72" s="10">
         <v>28.7</v>
       </c>
       <c r="AQ72">
@@ -12487,7 +12478,7 @@
       <c r="A73" s="2">
         <v>41547</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <v>0</v>
       </c>
       <c r="C73" s="3">
@@ -12607,7 +12598,7 @@
       <c r="AO73" s="4">
         <v>97.31</v>
       </c>
-      <c r="AP73" s="11">
+      <c r="AP73" s="10">
         <v>23.3</v>
       </c>
       <c r="AQ73">
@@ -12648,7 +12639,7 @@
       <c r="A74" s="2">
         <v>41639</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="11">
         <v>0</v>
       </c>
       <c r="C74" s="3">
@@ -12768,7 +12759,7 @@
       <c r="AO74" s="4">
         <v>96.823333333333323</v>
       </c>
-      <c r="AP74" s="11">
+      <c r="AP74" s="10">
         <v>17.3</v>
       </c>
       <c r="AQ74">
@@ -12809,7 +12800,7 @@
       <c r="A75" s="2">
         <v>41729</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="11">
         <v>0</v>
       </c>
       <c r="C75" s="3">
@@ -12929,7 +12920,7 @@
       <c r="AO75" s="4">
         <v>96.655000000000001</v>
       </c>
-      <c r="AP75" s="11">
+      <c r="AP75" s="10">
         <v>-3.8</v>
       </c>
       <c r="AQ75">
@@ -12970,7 +12961,7 @@
       <c r="A76" s="2">
         <v>41820</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="11">
         <v>0</v>
       </c>
       <c r="C76" s="3">
@@ -13090,7 +13081,7 @@
       <c r="AO76" s="4">
         <v>95.216666666666654</v>
       </c>
-      <c r="AP76" s="11">
+      <c r="AP76" s="10">
         <v>-6</v>
       </c>
       <c r="AQ76">
@@ -13131,7 +13122,7 @@
       <c r="A77" s="2">
         <v>41912</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="11">
         <v>0</v>
       </c>
       <c r="C77" s="3">
@@ -13251,7 +13242,7 @@
       <c r="AO77" s="4">
         <v>94.776666666666685</v>
       </c>
-      <c r="AP77" s="11">
+      <c r="AP77" s="10">
         <v>-8.6</v>
       </c>
       <c r="AQ77">
@@ -13292,7 +13283,7 @@
       <c r="A78" s="2">
         <v>42004</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="11">
         <v>0</v>
       </c>
       <c r="C78" s="3">
@@ -13412,7 +13403,7 @@
       <c r="AO78" s="4">
         <v>94.33</v>
       </c>
-      <c r="AP78" s="11">
+      <c r="AP78" s="10">
         <v>-7.6</v>
       </c>
       <c r="AQ78">
@@ -13453,7 +13444,7 @@
       <c r="A79" s="2">
         <v>42094</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="11">
         <v>1</v>
       </c>
       <c r="C79" s="3">
@@ -13573,7 +13564,7 @@
       <c r="AO79" s="4">
         <v>93.44</v>
       </c>
-      <c r="AP79" s="11">
+      <c r="AP79" s="10">
         <v>-9.1999999999999993</v>
       </c>
       <c r="AQ79">
@@ -13614,7 +13605,7 @@
       <c r="A80" s="2">
         <v>42185</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B80" s="11">
         <v>1</v>
       </c>
       <c r="C80" s="3">
@@ -13734,7 +13725,7 @@
       <c r="AO80" s="4">
         <v>92.54</v>
       </c>
-      <c r="AP80" s="11">
+      <c r="AP80" s="10">
         <v>3.9</v>
       </c>
       <c r="AQ80">
@@ -13775,7 +13766,7 @@
       <c r="A81" s="2">
         <v>42277</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B81" s="11">
         <v>1</v>
       </c>
       <c r="C81" s="3">
@@ -13895,7 +13886,7 @@
       <c r="AO81" s="4">
         <v>93.296666666666667</v>
       </c>
-      <c r="AP81" s="11">
+      <c r="AP81" s="10">
         <v>7.5</v>
       </c>
       <c r="AQ81">
@@ -13936,7 +13927,7 @@
       <c r="A82" s="2">
         <v>42369</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="11">
         <v>1</v>
       </c>
       <c r="C82" s="3">
@@ -14056,7 +14047,7 @@
       <c r="AO82" s="4">
         <v>93.34333333333332</v>
       </c>
-      <c r="AP82" s="11">
+      <c r="AP82" s="10">
         <v>6.5</v>
       </c>
       <c r="AQ82">
@@ -14097,7 +14088,7 @@
       <c r="A83" s="2">
         <v>42460</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="11">
         <v>1</v>
       </c>
       <c r="C83" s="3">
@@ -14217,7 +14208,7 @@
       <c r="AO83" s="4">
         <v>99.735000000000014</v>
       </c>
-      <c r="AP83" s="11">
+      <c r="AP83" s="10">
         <v>33.1</v>
       </c>
       <c r="AQ83">
@@ -14258,7 +14249,7 @@
       <c r="A84" s="2">
         <v>42551</v>
       </c>
-      <c r="B84" s="12">
+      <c r="B84" s="11">
         <v>0</v>
       </c>
       <c r="C84" s="3">
@@ -14378,7 +14369,7 @@
       <c r="AO84" s="4">
         <v>100.69</v>
       </c>
-      <c r="AP84" s="11">
+      <c r="AP84" s="10">
         <v>27.9</v>
       </c>
       <c r="AQ84">
@@ -14419,7 +14410,7 @@
       <c r="A85" s="2">
         <v>42643</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="11">
         <v>0</v>
       </c>
       <c r="C85" s="3">
@@ -14539,7 +14530,7 @@
       <c r="AO85" s="4">
         <v>100.43333333333334</v>
       </c>
-      <c r="AP85" s="11">
+      <c r="AP85" s="10">
         <v>26.9</v>
       </c>
       <c r="AQ85">
@@ -14580,7 +14571,7 @@
       <c r="A86" s="2">
         <v>42735</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B86" s="11">
         <v>0</v>
       </c>
       <c r="C86" s="3">
@@ -14700,7 +14691,7 @@
       <c r="AO86" s="4">
         <v>100.88333333333333</v>
       </c>
-      <c r="AP86" s="11">
+      <c r="AP86" s="10">
         <v>22.5</v>
       </c>
       <c r="AQ86">
@@ -14741,7 +14732,7 @@
       <c r="A87" s="2">
         <v>42825</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="11">
         <v>0</v>
       </c>
       <c r="C87" s="3">
@@ -14861,7 +14852,7 @@
       <c r="AO87" s="4">
         <v>100.88666666666667</v>
       </c>
-      <c r="AP87" s="11">
+      <c r="AP87" s="10">
         <v>19.5</v>
       </c>
       <c r="AQ87">
@@ -14902,7 +14893,7 @@
       <c r="A88" s="2">
         <v>42916</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B88" s="11">
         <v>0</v>
       </c>
       <c r="C88" s="3">
@@ -15022,7 +15013,7 @@
       <c r="AO88" s="4">
         <v>101.25666666666666</v>
       </c>
-      <c r="AP88" s="11">
+      <c r="AP88" s="10">
         <v>16.100000000000001</v>
       </c>
       <c r="AQ88">
@@ -15063,7 +15054,7 @@
       <c r="A89" s="2">
         <v>43008</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="11">
         <v>0</v>
       </c>
       <c r="C89" s="3">
@@ -15183,7 +15174,7 @@
       <c r="AO89" s="4">
         <v>101.46333333333332</v>
       </c>
-      <c r="AP89" s="11">
+      <c r="AP89" s="10">
         <v>10.3</v>
       </c>
       <c r="AQ89">
@@ -15224,7 +15215,7 @@
       <c r="A90" s="2">
         <v>43100</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B90" s="11">
         <v>0</v>
       </c>
       <c r="C90" s="3">
@@ -15344,7 +15335,7 @@
       <c r="AO90" s="4">
         <v>101.64</v>
       </c>
-      <c r="AP90" s="11">
+      <c r="AP90" s="10">
         <v>7.7</v>
       </c>
       <c r="AQ90">
@@ -15385,7 +15376,7 @@
       <c r="A91" s="2">
         <v>43190</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="11">
         <v>0</v>
       </c>
       <c r="C91" s="3">
@@ -15496,7 +15487,7 @@
       <c r="AO91" s="4">
         <v>101.61333333333333</v>
       </c>
-      <c r="AP91" s="11">
+      <c r="AP91" s="10">
         <v>3.6</v>
       </c>
     </row>
@@ -15504,7 +15495,7 @@
       <c r="A92" s="2">
         <v>43281</v>
       </c>
-      <c r="B92" s="12">
+      <c r="B92" s="11">
         <v>0</v>
       </c>
       <c r="C92" s="3">
@@ -15615,7 +15606,7 @@
       <c r="AO92" s="4">
         <v>101.54666666666667</v>
       </c>
-      <c r="AP92" s="11">
+      <c r="AP92" s="10">
         <v>3.3</v>
       </c>
     </row>
@@ -15641,7 +15632,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -15754,103 +15745,103 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
       <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" t="s">
         <v>75</v>
       </c>
-      <c r="R2" t="s">
-        <v>76</v>
-      </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="U2" t="s">
-        <v>83</v>
-      </c>
       <c r="V2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X2" t="s">
         <v>87</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>89</v>
       </c>
-      <c r="X2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>91</v>
       </c>
-      <c r="AB2" t="s">
-        <v>92</v>
-      </c>
       <c r="AC2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" t="s">
         <v>96</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>97</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" t="s">
-        <v>99</v>
-      </c>
       <c r="AG2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH2" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>111</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.15">
@@ -23788,7 +23779,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -23811,16 +23802,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -25029,7 +25020,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -25061,26 +25052,26 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>37711</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="4">
         <v>100.8</v>
       </c>
@@ -25101,10 +25092,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>37802</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="4">
         <v>101.6</v>
       </c>
@@ -25125,10 +25116,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>37894</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="4">
         <v>102.4</v>
       </c>
@@ -25149,10 +25140,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>37986</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="4">
         <v>104.1</v>
       </c>
@@ -25173,10 +25164,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>38077</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="4">
         <v>107.5</v>
       </c>
@@ -25197,10 +25188,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>38168</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="4">
         <v>106.1</v>
       </c>
@@ -25221,10 +25212,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>38260</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="4">
         <v>104.7</v>
       </c>
@@ -25245,10 +25236,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>38352</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="4">
         <v>103.9</v>
       </c>
@@ -25269,10 +25260,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>38442</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="4">
         <v>101.8</v>
       </c>
@@ -25293,10 +25284,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>38533</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="4">
         <v>101.7</v>
       </c>
@@ -25317,10 +25308,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>38625</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="4">
         <v>101.6</v>
       </c>
@@ -25341,10 +25332,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>38717</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="4">
         <v>101.6</v>
       </c>
@@ -25365,10 +25356,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>38807</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="4">
         <v>100.3</v>
       </c>
@@ -25389,10 +25380,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>38898</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="4">
         <v>101.4</v>
       </c>
@@ -25413,10 +25404,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>38990</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="4">
         <v>102.2</v>
       </c>
@@ -25437,10 +25428,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>39082</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="4">
         <v>102.3</v>
       </c>
@@ -25461,10 +25452,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>39172</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="4">
         <v>102.3</v>
       </c>
@@ -25485,10 +25476,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>39263</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="4">
         <v>103.5</v>
       </c>
@@ -25509,10 +25500,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>39355</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="4">
         <v>104</v>
       </c>
@@ -25533,10 +25524,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>39447</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="4">
         <v>105.8</v>
       </c>
@@ -25557,10 +25548,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>39538</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="4">
         <v>108.6</v>
       </c>
@@ -25581,10 +25572,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>39629</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="4">
         <v>111.3</v>
       </c>
@@ -25605,10 +25596,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>39721</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="4">
         <v>111.1</v>
       </c>
@@ -25629,10 +25620,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>39813</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="4">
         <v>104.7</v>
       </c>
@@ -25653,10 +25644,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>39903</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="4">
         <v>98.8</v>
       </c>
@@ -25677,10 +25668,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>39994</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="4">
         <v>96.1</v>
       </c>
@@ -25701,10 +25692,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>40086</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="4">
         <v>96.4</v>
       </c>
@@ -25725,10 +25716,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>40178</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="4">
         <v>99</v>
       </c>
@@ -25749,10 +25740,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>40268</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="4">
         <v>101.9</v>
       </c>
@@ -25773,10 +25764,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>40359</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="4">
         <v>103.6</v>
       </c>
@@ -25797,10 +25788,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>40451</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="4">
         <v>103.5</v>
       </c>
@@ -25821,10 +25812,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>40543</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="4">
         <v>105.4</v>
       </c>
@@ -25845,10 +25836,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>40633</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="4">
         <v>106.5</v>
       </c>
@@ -25869,10 +25860,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>40724</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="4">
         <v>106.7</v>
       </c>
@@ -25893,10 +25884,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>40816</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="4">
         <v>107.3</v>
       </c>
@@ -25917,10 +25908,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>40908</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="4">
         <v>105.7</v>
       </c>
@@ -25941,10 +25932,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>40999</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="4">
         <v>102.3</v>
       </c>
@@ -25965,10 +25956,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>41090</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="4">
         <v>101.6</v>
       </c>
@@ -25989,10 +25980,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>41182</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="4">
         <v>100.24</v>
       </c>
@@ -26013,10 +26004,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>41274</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="4">
         <v>100.32</v>
       </c>
@@ -26037,10 +26028,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>41364</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="4">
         <v>100.17</v>
       </c>
@@ -26061,10 +26052,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>41455</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="4">
         <v>99.89</v>
       </c>
@@ -26085,10 +26076,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>41547</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="4">
         <v>100.1</v>
       </c>
@@ -26109,10 +26100,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>41639</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="4">
         <v>100.87</v>
       </c>
@@ -26133,10 +26124,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>41729</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="4">
         <v>101.1</v>
       </c>
@@ -26157,10 +26148,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>41820</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="4">
         <v>100.6</v>
       </c>
@@ -26181,10 +26172,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>41912</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="4">
         <v>100.41</v>
       </c>
@@ -26205,10 +26196,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>42004</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="4">
         <v>99.9</v>
       </c>
@@ -26229,10 +26220,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>42094</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="4">
         <v>99.13</v>
       </c>
@@ -26253,10 +26244,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>42185</v>
       </c>
-      <c r="B52" s="7"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="4">
         <v>98.79</v>
       </c>
@@ -26266,7 +26257,7 @@
       <c r="E52">
         <v>1.1435388748859801</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="8">
         <v>-9.3507851245844197E-5</v>
       </c>
       <c r="G52" s="4">
@@ -26277,10 +26268,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>42277</v>
       </c>
-      <c r="B53" s="7"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="4">
         <v>97.7</v>
       </c>
@@ -26301,10 +26292,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>42369</v>
       </c>
-      <c r="B54" s="7"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="4">
         <v>97.1</v>
       </c>
@@ -26325,10 +26316,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>42460</v>
       </c>
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="4">
         <v>97.32</v>
       </c>
@@ -26349,10 +26340,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>42551</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="4">
         <v>99.2</v>
       </c>
@@ -26373,10 +26364,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>42643</v>
       </c>
-      <c r="B57" s="7"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="4">
         <v>99.9</v>
       </c>
@@ -26397,10 +26388,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>42735</v>
       </c>
-      <c r="B58" s="7"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="4">
         <v>101.4</v>
       </c>
@@ -26421,10 +26412,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>42825</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="4">
         <v>104.5</v>
       </c>
@@ -26445,10 +26436,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>42916</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="4">
         <v>104.7</v>
       </c>
@@ -26469,10 +26460,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>43008</v>
       </c>
-      <c r="B61" s="7"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="4">
         <v>106.5</v>
       </c>
@@ -26493,10 +26484,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>43100</v>
       </c>
-      <c r="B62" s="7"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="4">
         <v>107.4</v>
       </c>
@@ -26517,10 +26508,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>43190</v>
       </c>
-      <c r="B63" s="7"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="4">
         <v>106.2</v>
       </c>
@@ -26541,10 +26532,10 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>43281</v>
       </c>
-      <c r="B64" s="7"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="4">
         <v>105.2</v>
       </c>
@@ -26574,15 +26565,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -26617,35 +26608,35 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>38442</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="4">
         <v>8.2765000000000004</v>
       </c>
@@ -26672,10 +26663,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>38533</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="4">
         <v>8.2765000000000004</v>
       </c>
@@ -26702,10 +26693,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>38625</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="4">
         <v>8.1388000000000016</v>
       </c>
@@ -26732,10 +26723,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>38717</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="4">
         <v>8.0829333333333331</v>
       </c>
@@ -26762,10 +26753,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>38807</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="4">
         <v>8.0502333333333329</v>
       </c>
@@ -26792,10 +26783,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>38898</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="4">
         <v>8.012533333333332</v>
       </c>
@@ -26822,10 +26813,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>38990</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="4">
         <v>7.9670999999999994</v>
       </c>
@@ -26852,10 +26843,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>39082</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="4">
         <v>7.8640666666666661</v>
       </c>
@@ -26882,10 +26873,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>39172</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="4">
         <v>7.761166666666667</v>
       </c>
@@ -26912,10 +26903,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>39263</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="4">
         <v>7.6749000000000001</v>
       </c>
@@ -26942,10 +26933,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>39355</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="4">
         <v>7.5605333333333329</v>
       </c>
@@ -26972,10 +26963,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>39447</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="4">
         <v>7.4307000000000007</v>
       </c>
@@ -27002,10 +26993,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>39538</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="4">
         <v>7.1610333333333331</v>
       </c>
@@ -27032,10 +27023,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>39629</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="4">
         <v>6.9567333333333332</v>
       </c>
@@ -27062,10 +27053,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>39721</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="4">
         <v>6.8399333333333336</v>
       </c>
@@ -27092,10 +27083,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>39813</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="4">
         <v>6.8342000000000001</v>
       </c>
@@ -27122,10 +27113,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>39903</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="4">
         <v>6.8359999999999994</v>
       </c>
@@ -27152,10 +27143,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>39994</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="4">
         <v>6.8296333333333337</v>
       </c>
@@ -27182,10 +27173,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>40086</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="4">
         <v>6.831033333333334</v>
       </c>
@@ -27212,10 +27203,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>40178</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="4">
         <v>6.8275999999999994</v>
       </c>
@@ -27242,10 +27233,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>40268</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="4">
         <v>6.8268999999999993</v>
       </c>
@@ -27272,10 +27263,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>40359</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="4">
         <v>6.8233666666666677</v>
       </c>
@@ -27302,10 +27293,10 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>40451</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="4">
         <v>6.7712666666666665</v>
       </c>
@@ -27332,10 +27323,10 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>40543</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="4">
         <v>6.6601666666666661</v>
       </c>
@@ -27362,10 +27353,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>40633</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="4">
         <v>6.5840000000000005</v>
       </c>
@@ -27392,10 +27383,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>40724</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="4">
         <v>6.5019333333333336</v>
       </c>
@@ -27422,10 +27413,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>40816</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="4">
         <v>6.4179000000000004</v>
       </c>
@@ -27452,10 +27443,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>40908</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="4">
         <v>6.3418333333333337</v>
       </c>
@@ -27482,10 +27473,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>40999</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="4">
         <v>6.3057333333333334</v>
       </c>
@@ -27512,10 +27503,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>41090</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="4">
         <v>6.3068666666666671</v>
       </c>
@@ -27542,10 +27533,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>41182</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="4">
         <v>6.3344666666666667</v>
       </c>
@@ -27572,14 +27563,14 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>41274</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="4">
         <v>6.2999000000000001</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>-6.6454407575910994E-5</v>
       </c>
       <c r="E34">
@@ -27602,10 +27593,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>41364</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="4">
         <v>6.2790666666666661</v>
       </c>
@@ -27632,10 +27623,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>41455</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="4">
         <v>6.2053000000000003</v>
       </c>
@@ -27662,10 +27653,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>41547</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="4">
         <v>6.1673666666666662</v>
       </c>
@@ -27692,10 +27683,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>41639</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="4">
         <v>6.1308333333333325</v>
       </c>
@@ -27722,10 +27713,10 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>41729</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="4">
         <v>6.117633333333333</v>
       </c>
@@ -27752,10 +27743,10 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>41820</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="4">
         <v>6.1608333333333327</v>
       </c>
@@ -27782,10 +27773,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>41912</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="4">
         <v>6.1567666666666661</v>
       </c>
@@ -27812,10 +27803,10 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>42004</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="4">
         <v>6.137033333333334</v>
       </c>
@@ -27842,10 +27833,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>42094</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="4">
         <v>6.1372666666666662</v>
       </c>
@@ -27872,10 +27863,10 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>42185</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="4">
         <v>6.1202000000000005</v>
       </c>
@@ -27902,10 +27893,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>42277</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="4">
         <v>6.2637999999999998</v>
       </c>
@@ -27932,10 +27923,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>42369</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="4">
         <v>6.3875999999999999</v>
       </c>
@@ -27962,10 +27953,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>42460</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="4">
         <v>6.5300666666666665</v>
       </c>
@@ -27992,10 +27983,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>42551</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="4">
         <v>6.5316999999999998</v>
       </c>
@@ -28022,10 +28013,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>42643</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="4">
         <v>6.6654333333333327</v>
       </c>
@@ -28052,10 +28043,10 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>42735</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="4">
         <v>6.8333000000000004</v>
       </c>
@@ -28082,10 +28073,10 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>42825</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="4">
         <v>6.8854333333333342</v>
       </c>
@@ -28112,10 +28103,10 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>42916</v>
       </c>
-      <c r="B52" s="7"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="4">
         <v>6.8563666666666663</v>
       </c>
@@ -28142,10 +28133,10 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>43008</v>
       </c>
-      <c r="B53" s="7"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="4">
         <v>6.6674666666666669</v>
       </c>
@@ -28172,10 +28163,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>43100</v>
       </c>
-      <c r="B54" s="7"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="4">
         <v>6.6093999999999999</v>
       </c>
@@ -28202,10 +28193,10 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>43190</v>
       </c>
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="4">
         <v>6.3582000000000001</v>
       </c>
@@ -28232,10 +28223,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>43281</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="4">
         <v>6.3763000000000005</v>
       </c>
@@ -28269,14 +28260,14 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -28305,29 +28296,29 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
       <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
-        <v>94</v>
-      </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>38807</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3">
         <v>4.8499999999999996</v>
       </c>
@@ -28348,10 +28339,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>38898</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4">
         <v>4.8499999999999996</v>
       </c>
@@ -28372,10 +28363,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>38990</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5">
         <v>4.92</v>
       </c>
@@ -28396,10 +28387,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>39082</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
       <c r="C6">
         <v>5.01</v>
       </c>
@@ -28420,10 +28411,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>39172</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7">
         <v>5.3</v>
       </c>
@@ -28444,10 +28435,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>39263</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8">
         <v>5.88</v>
       </c>
@@ -28468,10 +28459,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>39355</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
       <c r="C9">
         <v>6.98</v>
       </c>
@@ -28492,10 +28483,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>39447</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
       <c r="C10">
         <v>8.9499999999999993</v>
       </c>
@@ -28516,10 +28507,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>39538</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
       <c r="C11">
         <v>9.4</v>
       </c>
@@ -28540,10 +28531,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>39629</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
       <c r="C12">
         <v>7.85</v>
       </c>
@@ -28564,10 +28555,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>39721</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
       <c r="C13">
         <v>5.5</v>
       </c>
@@ -28588,10 +28579,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>39813</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
       <c r="C14">
         <v>1.79</v>
       </c>
@@ -28612,10 +28603,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>39903</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
       <c r="C15">
         <v>-0.19</v>
       </c>
@@ -28636,10 +28627,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>39994</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
       <c r="C16">
         <v>-0.47</v>
       </c>
@@ -28660,10 +28651,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>40086</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="6"/>
       <c r="C17">
         <v>1.19</v>
       </c>
@@ -28684,10 +28675,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>40178</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18">
         <v>4.43</v>
       </c>
@@ -28708,10 +28699,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>40268</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19">
         <v>8.99</v>
       </c>
@@ -28732,10 +28723,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>40359</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20">
         <v>10.62</v>
       </c>
@@ -28756,10 +28747,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>40451</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
       <c r="C21">
         <v>8.6999999999999993</v>
       </c>
@@ -28780,10 +28771,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>40543</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
       <c r="C22">
         <v>7.49</v>
       </c>
@@ -28804,10 +28795,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>40633</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
       <c r="C23">
         <v>5.89</v>
       </c>
@@ -28828,10 +28819,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>40724</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
       <c r="C24">
         <v>4.2699999999999996</v>
       </c>
@@ -28852,10 +28843,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>40816</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
       <c r="C25">
         <v>4.09</v>
       </c>
@@ -28876,10 +28867,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>40908</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="6"/>
       <c r="C26">
         <v>2.29</v>
       </c>
@@ -28900,10 +28891,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>40999</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="6"/>
       <c r="C27">
         <v>0.14000000000000001</v>
       </c>
@@ -28924,10 +28915,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>41090</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
       <c r="C28">
         <v>-1.1200000000000001</v>
       </c>
@@ -28948,10 +28939,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>41182</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="6"/>
       <c r="C29">
         <v>-1.17</v>
       </c>
@@ -28972,10 +28963,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>41274</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="6"/>
       <c r="C30">
         <v>-0.52</v>
       </c>
@@ -28996,10 +28987,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>41363</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="6"/>
       <c r="C31">
         <v>1.87</v>
       </c>
@@ -29020,10 +29011,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>41455</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="6"/>
       <c r="C32">
         <v>5.28</v>
       </c>
@@ -29044,10 +29035,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>41547</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="6"/>
       <c r="C33">
         <v>7.51</v>
       </c>
@@ -29068,10 +29059,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>41639</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34">
         <v>9.07</v>
       </c>
@@ -29092,10 +29083,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>41729</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="6"/>
       <c r="C35">
         <v>8.23</v>
       </c>
@@ -29116,10 +29107,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>41820</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="6"/>
       <c r="C36">
         <v>5.33</v>
       </c>
@@ -29140,10 +29131,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>41912</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="6"/>
       <c r="C37">
         <v>0.64</v>
       </c>
@@ -29164,10 +29155,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>42004</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="6"/>
       <c r="C38">
         <v>-3.45</v>
       </c>
@@ -29188,10 +29179,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>42094</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="6"/>
       <c r="C39">
         <v>-5.66</v>
       </c>
@@ -29212,10 +29203,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>42185</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="6"/>
       <c r="C40">
         <v>-5.91</v>
       </c>
@@ -29236,10 +29227,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>42277</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
       <c r="C41">
         <v>-3.11</v>
       </c>
@@ -29260,10 +29251,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>42369</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
       <c r="C42">
         <v>-0.28999999999999998</v>
       </c>
@@ -29284,10 +29275,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>42460</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="6"/>
       <c r="C43">
         <v>2.14</v>
       </c>
@@ -29308,10 +29299,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>42551</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="6"/>
       <c r="C44">
         <v>5.22</v>
       </c>
@@ -29332,10 +29323,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>42643</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="6"/>
       <c r="C45">
         <v>8</v>
       </c>
@@ -29356,10 +29347,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>42735</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="6"/>
       <c r="C46">
         <v>10.92</v>
       </c>
@@ -29380,10 +29371,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>42825</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
       <c r="C47">
         <v>10.71</v>
       </c>
@@ -29404,10 +29395,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>42916</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
       <c r="C48">
         <v>9.7899999999999991</v>
       </c>
@@ -29428,10 +29419,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>43008</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
       <c r="C49">
         <v>7.68</v>
       </c>
@@ -29452,10 +29443,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>43100</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
       <c r="C50">
         <v>5.0999999999999996</v>
       </c>
@@ -29476,19 +29467,19 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>43190</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
       <c r="G51">
         <v>18.176873708256274</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>43281</v>
       </c>
-      <c r="B52" s="7"/>
+      <c r="B52" s="6"/>
       <c r="G52">
         <v>22.105530587871616</v>
       </c>
@@ -29501,15 +29492,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1">
         <v>1</v>
       </c>
@@ -29525,609 +29519,703 @@
       <c r="F1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
         <v>40633</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
         <v>22.4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>1.4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>41.3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>64.099999999999994</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>11.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>40724</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>22.6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>1.4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>42</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>64</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>12.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>40816</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>22.1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>1.4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>42.8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>65.3</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>12.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>40908</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>1.3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>43.2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>64.900000000000006</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>12.7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>40999</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <v>22.34</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>1.43</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>45.66</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>64.53</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>12.74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>41090</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
         <v>22.29</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>1.41</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>46.69</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>64.33</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>12.91</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>41182</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
         <v>21.54</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>1.39</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>45.23</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>65.28</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>13.03</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
         <v>41274</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
         <v>19.850000000000001</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>1.28</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>45.83</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>65.31</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>13.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
         <v>41364</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
         <v>21</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>1.37</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>45.36</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>64.680000000000007</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>12.28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
         <v>41455</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
         <v>21.19</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>1.38</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>43.68</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>65.17</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>12.24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
         <v>41547</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
         <v>20.67</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>1.36</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>42.8</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>65.63</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>12.18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
         <v>41639</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
         <v>19.170000000000002</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>1.27</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>44.03</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>66.08</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>12.19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
         <v>41729</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
         <v>20.8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>1.4</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>46.29</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>65.89</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>12.13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
         <v>41820</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
         <v>20.66</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>1.37</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>47.52</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>65.400000000000006</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>12.4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
         <v>41912</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
         <v>19.78</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>1.35</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>48.53</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>64.17</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>12.93</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
         <v>42004</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
         <v>17.59</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>1.23</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>46.44</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>65.09</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>13.18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
         <v>42094</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
         <v>17.760000000000002</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>1.29</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>47.46</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>65.67</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>13.13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
         <v>42185</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
         <v>17.260000000000002</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>1.23</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>46.18</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>65.8</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>12.95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
         <v>42277</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
         <v>16.68</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>1.2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>46.16</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>66.39</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>13.15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
         <v>42369</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
         <v>14.98</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>48.01</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>67.239999999999995</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>13.45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
         <v>42460</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
         <v>15.93</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>1.19</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>48.08</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>67.010000000000005</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>13.37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
         <v>42551</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
         <v>15.16</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>48.14</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>67.22</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>13.11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
         <v>42643</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
         <v>14.58</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>1.08</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>46.93</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>67.27</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>13.31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
         <v>42735</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
         <v>13.38</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>0.98</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>47.55</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>67.61</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>13.28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
         <v>42825</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
         <v>14.77</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <v>1.07</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>48.74</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>67.739999999999995</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>13.26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
         <v>42916</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
         <v>14.48</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>1.04</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>49.52</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>69.12</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>13.16</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
         <v>43008</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
         <v>13.94</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>1.02</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>49.17</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>70.010000000000005</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>13.32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
         <v>43100</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
         <v>12.56</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>0.92</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>50.03</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>70.55</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>13.65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
         <v>43190</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
         <v>14</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>1.05</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>51.39</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>71.180000000000007</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>13.64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/XY/data/使用数据.xlsx
+++ b/XY/data/使用数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="4305" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1996Q1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="121">
   <si>
     <t>GDP增长率</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,9 +59,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>固定资产投资价格指数</t>
-  </si>
-  <si>
     <t>数据个数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -76,12 +73,6 @@
   <si>
     <t>M2增长率（季调）</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币乘数</t>
-  </si>
-  <si>
-    <t>社会融资规模增速</t>
   </si>
   <si>
     <t>社融/缺口</t>
@@ -106,9 +97,6 @@
   <si>
     <t>上涨综指波动率</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票市值/GDP</t>
   </si>
   <si>
     <t>股票市值/GDP缺口</t>
@@ -143,9 +131,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>出口金额/GDP</t>
-  </si>
-  <si>
     <t>出口金额/GDP缺口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -170,14 +155,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>经常项目/GDP</t>
-  </si>
-  <si>
     <t>经常项目/GDP缺口</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>外商直接投资/GDP</t>
   </si>
   <si>
     <t>外商直接投资/GDP缺口</t>
@@ -204,9 +183,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>外债余额/GDP</t>
-  </si>
-  <si>
     <t>外债余额/GDP缺口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -219,27 +195,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>外债风险指标:负债率</t>
-  </si>
-  <si>
-    <t>外债风险指标:债务率</t>
-  </si>
-  <si>
-    <t>外债风险指标:偿债率</t>
-  </si>
-  <si>
     <t>财政支出增长率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>财政收入/财政支出</t>
-  </si>
-  <si>
     <t>财政收入/财政支出缺口</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>超额存款准备金率</t>
   </si>
   <si>
     <t>不良贷款比例</t>
@@ -268,9 +229,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>贷存比</t>
-  </si>
-  <si>
     <t>贷存比缺口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -282,17 +240,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>短期贷款比例</t>
-  </si>
-  <si>
     <t>短期贷款比例缺口</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中长期贷款比例</t>
-  </si>
-  <si>
-    <t>短期贷款/GDP</t>
   </si>
   <si>
     <t>银行业金融机构资产增速</t>
@@ -302,14 +251,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房地产投资完成额占比</t>
-  </si>
-  <si>
     <t>房地产投资完成额占比缺口</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房地产开发投资完成额增速</t>
   </si>
   <si>
     <t>房价增速1</t>
@@ -336,14 +279,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>商品房销售面积:累计同比</t>
-  </si>
-  <si>
     <t>土地购置费增速</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地购置费:累计同比</t>
   </si>
   <si>
     <t>全国商品房广义存销比:住房</t>
@@ -358,21 +295,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房价/人均可支配收入增速</t>
-  </si>
-  <si>
-    <t>房价/人均可支配收入</t>
-  </si>
-  <si>
     <t>房价/人均可支配收入缺口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>住房贷款/可支配总收入缺口</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房地产开发贷款增速</t>
   </si>
   <si>
     <t>向非金融部门提供的信贷/GDP缺口</t>
@@ -456,6 +384,126 @@
   </si>
   <si>
     <t>数据类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票市值/GDP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口金额/GDP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外债风险指标:负债率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外债风险指标:债务率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外债风险指标:偿债率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财政收入/财政支出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷存比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期贷款比例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中长期贷款比例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中长期贷款比例缺口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期贷款/GDP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期贷款/GDP缺口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品房销售面积:累计同比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币乘数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经常项目/GDP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外债余额/GDP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产投资完成额占比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国商品房广义存销比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房价/人均可支配收入增速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房价/人均可支配收入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产开发投资完成额增速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产投资价格指数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会融资规模增速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外商直接投资/GDP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额存款准备金率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地购置费:累计同比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产开发贷款增速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良贷款比例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融机构贷款/总资产</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行业金融机构资产增速</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:BA90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -893,7 +941,7 @@
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -1072,136 +1120,142 @@
         <v>6</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>23</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
         <v>28</v>
       </c>
-      <c r="T2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" t="s">
-        <v>33</v>
-      </c>
       <c r="Y2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AF2" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AG2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH2" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AI2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>69</v>
-      </c>
       <c r="AK2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>70</v>
       </c>
-      <c r="AM2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AR2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" t="s">
         <v>83</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>107</v>
-      </c>
       <c r="AW2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AX2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AY2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.15">
@@ -1853,7 +1907,7 @@
         <v>35520</v>
       </c>
       <c r="B7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
         <v>10.1</v>
@@ -2014,7 +2068,7 @@
         <v>35611</v>
       </c>
       <c r="B8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -2175,7 +2229,7 @@
         <v>35703</v>
       </c>
       <c r="B9" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
         <v>8.6</v>
@@ -2336,7 +2390,7 @@
         <v>35795</v>
       </c>
       <c r="B10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>8.6</v>
@@ -5073,7 +5127,7 @@
         <v>37346</v>
       </c>
       <c r="B27" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="3">
         <v>8.9</v>
@@ -5234,7 +5288,7 @@
         <v>37437</v>
       </c>
       <c r="B28" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3">
         <v>8.8000000000000007</v>
@@ -5395,7 +5449,7 @@
         <v>37529</v>
       </c>
       <c r="B29" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="3">
         <v>9.6</v>
@@ -5556,7 +5610,7 @@
         <v>37621</v>
       </c>
       <c r="B30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="3">
         <v>9.1</v>
@@ -5717,7 +5771,7 @@
         <v>37711</v>
       </c>
       <c r="B31" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="3">
         <v>11.1</v>
@@ -5878,7 +5932,7 @@
         <v>37802</v>
       </c>
       <c r="B32" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="3">
         <v>9.1</v>
@@ -6039,7 +6093,7 @@
         <v>37894</v>
       </c>
       <c r="B33" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="3">
         <v>10</v>
@@ -6200,7 +6254,7 @@
         <v>37986</v>
       </c>
       <c r="B34" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="3">
         <v>10</v>
@@ -8937,7 +8991,7 @@
         <v>39538</v>
       </c>
       <c r="B51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="3">
         <v>11.5</v>
@@ -9420,7 +9474,7 @@
         <v>39813</v>
       </c>
       <c r="B54" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="3">
         <v>7.1</v>
@@ -9581,7 +9635,7 @@
         <v>39903</v>
       </c>
       <c r="B55" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="3">
         <v>6.4</v>
@@ -9742,7 +9796,7 @@
         <v>39994</v>
       </c>
       <c r="B56" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="3">
         <v>8.1999999999999993</v>
@@ -10708,7 +10762,7 @@
         <v>40543</v>
       </c>
       <c r="B62" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="3">
         <v>9.9</v>
@@ -10869,7 +10923,7 @@
         <v>40633</v>
       </c>
       <c r="B63" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="3">
         <v>10.199999999999999</v>
@@ -11030,7 +11084,7 @@
         <v>40724</v>
       </c>
       <c r="B64" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="3">
         <v>10</v>
@@ -12318,7 +12372,7 @@
         <v>41455</v>
       </c>
       <c r="B72" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="3">
         <v>7.6</v>
@@ -12479,7 +12533,7 @@
         <v>41547</v>
       </c>
       <c r="B73" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="3">
         <v>7.9</v>
@@ -12640,7 +12694,7 @@
         <v>41639</v>
       </c>
       <c r="B74" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="3">
         <v>7.7</v>
@@ -12801,7 +12855,7 @@
         <v>41729</v>
       </c>
       <c r="B75" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="3">
         <v>7.4</v>
@@ -12962,7 +13016,7 @@
         <v>41820</v>
       </c>
       <c r="B76" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="3">
         <v>7.5</v>
@@ -13123,7 +13177,7 @@
         <v>41912</v>
       </c>
       <c r="B77" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="3">
         <v>7.1</v>
@@ -13284,7 +13338,7 @@
         <v>42004</v>
       </c>
       <c r="B78" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="3">
         <v>7.2</v>
@@ -13606,7 +13660,7 @@
         <v>42185</v>
       </c>
       <c r="B80" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" s="3">
         <v>7</v>
@@ -13767,7 +13821,7 @@
         <v>42277</v>
       </c>
       <c r="B81" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="3">
         <v>6.9</v>
@@ -13928,7 +13982,7 @@
         <v>42369</v>
       </c>
       <c r="B82" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="3">
         <v>6.8</v>
@@ -14089,7 +14143,7 @@
         <v>42460</v>
       </c>
       <c r="B83" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="3">
         <v>6.7</v>
@@ -15370,244 +15424,6 @@
       </c>
       <c r="BA90">
         <v>-2.11625267725324</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A91" s="2">
-        <v>43190</v>
-      </c>
-      <c r="B91" s="11">
-        <v>0</v>
-      </c>
-      <c r="C91" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="D91" s="3">
-        <v>6.4382060000000001</v>
-      </c>
-      <c r="E91" s="4">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F91">
-        <v>5.2124046032923328</v>
-      </c>
-      <c r="G91" s="4">
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="H91">
-        <v>23.643984190907901</v>
-      </c>
-      <c r="I91">
-        <v>-0.601241412048658</v>
-      </c>
-      <c r="J91" s="3">
-        <v>8.4107752222949603</v>
-      </c>
-      <c r="K91" s="3">
-        <v>2.4333333333333331</v>
-      </c>
-      <c r="L91" s="3">
-        <v>3338.1389762711865</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-6.5979864406779651E-2</v>
-      </c>
-      <c r="N91">
-        <v>2.5444781774654701</v>
-      </c>
-      <c r="O91">
-        <v>-0.194689689264198</v>
-      </c>
-      <c r="P91" s="4">
-        <v>125.85</v>
-      </c>
-      <c r="Q91">
-        <v>7.9174916756414804E-2</v>
-      </c>
-      <c r="R91">
-        <v>2.7881689845832187</v>
-      </c>
-      <c r="S91">
-        <v>7.7796820643008306</v>
-      </c>
-      <c r="T91">
-        <v>18.109211562324901</v>
-      </c>
-      <c r="U91">
-        <v>0.35344370034557898</v>
-      </c>
-      <c r="V91">
-        <v>15.3635260710232</v>
-      </c>
-      <c r="W91">
-        <v>1.21911343951509</v>
-      </c>
-      <c r="X91">
-        <v>-5.3023885718213144</v>
-      </c>
-      <c r="AB91">
-        <v>8.7507257981940363</v>
-      </c>
-      <c r="AC91">
-        <v>0.82918698088125897</v>
-      </c>
-      <c r="AD91">
-        <v>-1.0517056003779999E-2</v>
-      </c>
-      <c r="AE91">
-        <v>10.588662299102024</v>
-      </c>
-      <c r="AF91">
-        <v>6.9709706087437393</v>
-      </c>
-      <c r="AG91">
-        <v>73.663336732087643</v>
-      </c>
-      <c r="AH91">
-        <v>1.08644375835825</v>
-      </c>
-      <c r="AI91">
-        <v>32.186620240269647</v>
-      </c>
-      <c r="AJ91">
-        <v>-0.64468201991669305</v>
-      </c>
-      <c r="AK91">
-        <v>62.076588092763963</v>
-      </c>
-      <c r="AL91">
-        <v>1.68699543954999</v>
-      </c>
-      <c r="AM91">
-        <v>5.4629939769176898</v>
-      </c>
-      <c r="AN91">
-        <v>-0.202715498313225</v>
-      </c>
-      <c r="AO91" s="4">
-        <v>101.61333333333333</v>
-      </c>
-      <c r="AP91" s="10">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A92" s="2">
-        <v>43281</v>
-      </c>
-      <c r="B92" s="11">
-        <v>0</v>
-      </c>
-      <c r="C92" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="D92" s="3">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E92" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F92">
-        <v>3.4089816150629475</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="H92">
-        <v>23.595615205249</v>
-      </c>
-      <c r="I92">
-        <v>-0.75552789675762</v>
-      </c>
-      <c r="J92" s="3">
-        <v>8.3574590382682707</v>
-      </c>
-      <c r="K92" s="3">
-        <v>2.7666666666666666</v>
-      </c>
-      <c r="L92" s="3">
-        <v>3083.9156383333329</v>
-      </c>
-      <c r="M92" s="3">
-        <v>-0.17256375000000007</v>
-      </c>
-      <c r="N92">
-        <v>2.4565037841608701</v>
-      </c>
-      <c r="O92">
-        <v>-0.31520799252752701</v>
-      </c>
-      <c r="P92" s="4">
-        <v>126.43</v>
-      </c>
-      <c r="Q92">
-        <v>0.42562557237120302</v>
-      </c>
-      <c r="R92">
-        <v>2.1934257659861389</v>
-      </c>
-      <c r="S92">
-        <v>10.14074962141169</v>
-      </c>
-      <c r="T92">
-        <v>18.066420558836001</v>
-      </c>
-      <c r="U92">
-        <v>0.56242429110117698</v>
-      </c>
-      <c r="V92">
-        <v>15.5848477627659</v>
-      </c>
-      <c r="W92">
-        <v>1.63834804325714</v>
-      </c>
-      <c r="X92">
-        <v>-6.5123777806220433</v>
-      </c>
-      <c r="AB92">
-        <v>3.464237388909214</v>
-      </c>
-      <c r="AC92">
-        <v>0.83149762929056004</v>
-      </c>
-      <c r="AD92">
-        <v>-3.09798763232571E-3</v>
-      </c>
-      <c r="AE92">
-        <v>10.767564400423458</v>
-      </c>
-      <c r="AF92">
-        <v>6.8741214443775132</v>
-      </c>
-      <c r="AG92">
-        <v>74.46123998101055</v>
-      </c>
-      <c r="AH92">
-        <v>1.57771273386174</v>
-      </c>
-      <c r="AI92">
-        <v>31.865716390192464</v>
-      </c>
-      <c r="AJ92">
-        <v>-0.56701926584750195</v>
-      </c>
-      <c r="AK92">
-        <v>62.309193252843485</v>
-      </c>
-      <c r="AL92">
-        <v>1.56254119050493</v>
-      </c>
-      <c r="AM92">
-        <v>5.4499680448475303</v>
-      </c>
-      <c r="AN92">
-        <v>-0.20982803973495301</v>
-      </c>
-      <c r="AO92" s="4">
-        <v>101.54666666666667</v>
-      </c>
-      <c r="AP92" s="10">
-        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -15619,10 +15435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ76"/>
+  <dimension ref="A1:AJ74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A75" sqref="A75:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15632,7 +15448,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -15745,110 +15561,115 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="Q2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s">
         <v>74</v>
       </c>
-      <c r="R2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AG2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI2" t="s">
         <v>86</v>
       </c>
-      <c r="W2" t="s">
-        <v>88</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AJ2" t="s">
         <v>87</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>36616</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
       <c r="C3" s="3">
         <v>3.8466666666666662</v>
       </c>
@@ -15956,7 +15777,9 @@
       <c r="A4" s="2">
         <v>36707</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
       <c r="C4" s="3">
         <v>3.9733333333333332</v>
       </c>
@@ -16064,7 +15887,9 @@
       <c r="A5" s="2">
         <v>36799</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
       <c r="C5" s="3">
         <v>3.9800000000000004</v>
       </c>
@@ -16172,7 +15997,9 @@
       <c r="A6" s="2">
         <v>36891</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
       <c r="C6" s="3">
         <v>3.9500000000000006</v>
       </c>
@@ -16280,7 +16107,9 @@
       <c r="A7" s="2">
         <v>36981</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
       <c r="C7" s="3">
         <v>3.9766666666666666</v>
       </c>
@@ -16388,7 +16217,9 @@
       <c r="A8" s="2">
         <v>37072</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
       <c r="C8" s="3">
         <v>4.1966666666666663</v>
       </c>
@@ -16496,7 +16327,9 @@
       <c r="A9" s="2">
         <v>37164</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
       <c r="C9" s="3">
         <v>4.2033333333333331</v>
       </c>
@@ -16604,7 +16437,9 @@
       <c r="A10" s="2">
         <v>37256</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
       <c r="C10" s="3">
         <v>4.0750000000000002</v>
       </c>
@@ -16712,7 +16547,9 @@
       <c r="A11" s="2">
         <v>37346</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
       <c r="C11" s="3">
         <v>3.9766666666666666</v>
       </c>
@@ -16820,7 +16657,9 @@
       <c r="A12" s="2">
         <v>37437</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
       <c r="C12" s="3">
         <v>4.13</v>
       </c>
@@ -16928,7 +16767,9 @@
       <c r="A13" s="2">
         <v>37529</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
       <c r="C13" s="3">
         <v>4.2566666666666668</v>
       </c>
@@ -17036,7 +16877,9 @@
       <c r="A14" s="2">
         <v>37621</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
       <c r="C14" s="3">
         <v>4.3066666666666658</v>
       </c>
@@ -17144,7 +16987,9 @@
       <c r="A15" s="2">
         <v>37711</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
       <c r="C15" s="3">
         <v>4.26</v>
       </c>
@@ -17252,7 +17097,9 @@
       <c r="A16" s="2">
         <v>37802</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
       <c r="C16" s="3">
         <v>4.68</v>
       </c>
@@ -17360,7 +17207,9 @@
       <c r="A17" s="2">
         <v>37894</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
       <c r="C17" s="3">
         <v>4.6866666666666665</v>
       </c>
@@ -17468,7 +17317,9 @@
       <c r="A18" s="2">
         <v>37986</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="11">
+        <v>0</v>
+      </c>
       <c r="C18" s="3">
         <v>4.38</v>
       </c>
@@ -17576,7 +17427,9 @@
       <c r="A19" s="2">
         <v>38077</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="11">
+        <v>0</v>
+      </c>
       <c r="C19" s="3">
         <v>4.3999999999999995</v>
       </c>
@@ -17684,7 +17537,9 @@
       <c r="A20" s="2">
         <v>38168</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="11">
+        <v>0</v>
+      </c>
       <c r="C20" s="3">
         <v>4.6500000000000004</v>
       </c>
@@ -17792,7 +17647,9 @@
       <c r="A21" s="2">
         <v>38260</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="11">
+        <v>0</v>
+      </c>
       <c r="C21" s="3">
         <v>4.6500000000000004</v>
       </c>
@@ -17900,7 +17757,9 @@
       <c r="A22" s="2">
         <v>38352</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
       <c r="C22" s="3">
         <v>4.5</v>
       </c>
@@ -18008,7 +17867,9 @@
       <c r="A23" s="2">
         <v>38442</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
       <c r="C23" s="3">
         <v>4.4499999999999993</v>
       </c>
@@ -18116,7 +17977,9 @@
       <c r="A24" s="2">
         <v>38533</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
       <c r="C24" s="3">
         <v>4.7833333333333332</v>
       </c>
@@ -18224,7 +18087,9 @@
       <c r="A25" s="2">
         <v>38625</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
       <c r="C25" s="3">
         <v>4.75</v>
       </c>
@@ -18332,7 +18197,9 @@
       <c r="A26" s="2">
         <v>38717</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
       <c r="C26" s="3">
         <v>4.8066666666666666</v>
       </c>
@@ -18440,7 +18307,9 @@
       <c r="A27" s="2">
         <v>38807</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
       <c r="C27" s="3">
         <v>4.7299999999999995</v>
       </c>
@@ -18548,7 +18417,9 @@
       <c r="A28" s="2">
         <v>38898</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
       <c r="C28" s="3">
         <v>5.1466666666666674</v>
       </c>
@@ -18656,7 +18527,9 @@
       <c r="A29" s="2">
         <v>38990</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
       <c r="C29" s="3">
         <v>5.1033333333333344</v>
       </c>
@@ -18764,7 +18637,9 @@
       <c r="A30" s="2">
         <v>39082</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
       <c r="C30" s="3">
         <v>4.8099999999999996</v>
       </c>
@@ -18872,7 +18747,9 @@
       <c r="A31" s="2">
         <v>39172</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
       <c r="C31" s="3">
         <v>4.6499999999999995</v>
       </c>
@@ -18980,7 +18857,9 @@
       <c r="A32" s="2">
         <v>39263</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
       <c r="C32" s="3">
         <v>4.6933333333333342</v>
       </c>
@@ -19088,7 +18967,9 @@
       <c r="A33" s="2">
         <v>39355</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="11">
+        <v>1</v>
+      </c>
       <c r="C33" s="3">
         <v>4.5666666666666664</v>
       </c>
@@ -19196,7 +19077,9 @@
       <c r="A34" s="2">
         <v>39447</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
       <c r="C34" s="3">
         <v>4.246666666666667</v>
       </c>
@@ -19304,7 +19187,9 @@
       <c r="A35" s="2">
         <v>39538</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="11">
+        <v>1</v>
+      </c>
       <c r="C35" s="3">
         <v>3.9366666666666661</v>
       </c>
@@ -19412,7 +19297,9 @@
       <c r="A36" s="2">
         <v>39629</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="11">
+        <v>0</v>
+      </c>
       <c r="C36" s="3">
         <v>3.9633333333333334</v>
       </c>
@@ -19520,7 +19407,9 @@
       <c r="A37" s="2">
         <v>39721</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="11">
+        <v>0</v>
+      </c>
       <c r="C37" s="3">
         <v>3.84</v>
       </c>
@@ -19628,7 +19517,9 @@
       <c r="A38" s="2">
         <v>39813</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
       <c r="C38" s="3">
         <v>3.813333333333333</v>
       </c>
@@ -19736,7 +19627,9 @@
       <c r="A39" s="2">
         <v>39903</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="11">
+        <v>1</v>
+      </c>
       <c r="C39" s="3">
         <v>4.0466666666666669</v>
       </c>
@@ -19844,7 +19737,9 @@
       <c r="A40" s="2">
         <v>39994</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="11">
+        <v>1</v>
+      </c>
       <c r="C40" s="3">
         <v>4.47</v>
       </c>
@@ -19952,7 +19847,9 @@
       <c r="A41" s="2">
         <v>40086</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="11">
+        <v>1</v>
+      </c>
       <c r="C41" s="3">
         <v>4.5366666666666662</v>
       </c>
@@ -20060,7 +19957,9 @@
       <c r="A42" s="2">
         <v>40178</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="11">
+        <v>1</v>
+      </c>
       <c r="C42" s="3">
         <v>4.373333333333334</v>
       </c>
@@ -20168,7 +20067,9 @@
       <c r="A43" s="2">
         <v>40268</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="11">
+        <v>1</v>
+      </c>
       <c r="C43" s="3">
         <v>4.3</v>
       </c>
@@ -20276,7 +20177,9 @@
       <c r="A44" s="2">
         <v>40359</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="11">
+        <v>1</v>
+      </c>
       <c r="C44" s="3">
         <v>4.45</v>
       </c>
@@ -20384,7 +20287,9 @@
       <c r="A45" s="2">
         <v>40451</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="11">
+        <v>1</v>
+      </c>
       <c r="C45" s="3">
         <v>4.38</v>
       </c>
@@ -20492,7 +20397,9 @@
       <c r="A46" s="2">
         <v>40543</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="11">
+        <v>0</v>
+      </c>
       <c r="C46" s="3">
         <v>4.09</v>
       </c>
@@ -20600,7 +20507,9 @@
       <c r="A47" s="2">
         <v>40633</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="11">
+        <v>0</v>
+      </c>
       <c r="C47" s="3">
         <v>3.8566666666666669</v>
       </c>
@@ -20708,7 +20617,9 @@
       <c r="A48" s="2">
         <v>40724</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="11">
+        <v>0</v>
+      </c>
       <c r="C48" s="3">
         <v>3.8833333333333333</v>
       </c>
@@ -20816,7 +20727,9 @@
       <c r="A49" s="2">
         <v>40816</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="11">
+        <v>0</v>
+      </c>
       <c r="C49" s="3">
         <v>3.78</v>
       </c>
@@ -20924,7 +20837,9 @@
       <c r="A50" s="2">
         <v>40908</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="11">
+        <v>0</v>
+      </c>
       <c r="C50" s="3">
         <v>3.8133333333333339</v>
       </c>
@@ -21032,7 +20947,9 @@
       <c r="A51" s="2">
         <v>40999</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="11">
+        <v>0</v>
+      </c>
       <c r="C51" s="3">
         <v>3.8133333333333339</v>
       </c>
@@ -21140,7 +21057,9 @@
       <c r="A52" s="2">
         <v>41090</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="11">
+        <v>0</v>
+      </c>
       <c r="C52" s="3">
         <v>4.0266666666666664</v>
       </c>
@@ -21248,7 +21167,9 @@
       <c r="A53" s="2">
         <v>41182</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="11">
+        <v>0</v>
+      </c>
       <c r="C53" s="3">
         <v>4.043333333333333</v>
       </c>
@@ -21356,7 +21277,9 @@
       <c r="A54" s="2">
         <v>41274</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="11">
+        <v>0</v>
+      </c>
       <c r="C54" s="3">
         <v>3.9566666666666666</v>
       </c>
@@ -21464,7 +21387,9 @@
       <c r="A55" s="2">
         <v>41364</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="11">
+        <v>0</v>
+      </c>
       <c r="C55" s="3">
         <v>3.9866666666666668</v>
       </c>
@@ -21572,7 +21497,9 @@
       <c r="A56" s="2">
         <v>41455</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="11">
+        <v>1</v>
+      </c>
       <c r="C56" s="3">
         <v>4.126666666666666</v>
       </c>
@@ -21680,7 +21607,9 @@
       <c r="A57" s="2">
         <v>41547</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="11">
+        <v>1</v>
+      </c>
       <c r="C57" s="3">
         <v>4.1166666666666663</v>
       </c>
@@ -21788,7 +21717,9 @@
       <c r="A58" s="2">
         <v>41639</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="11">
+        <v>1</v>
+      </c>
       <c r="C58" s="3">
         <v>4.1233333333333331</v>
       </c>
@@ -21896,7 +21827,9 @@
       <c r="A59" s="2">
         <v>41729</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="11">
+        <v>1</v>
+      </c>
       <c r="C59" s="3">
         <v>4.083333333333333</v>
       </c>
@@ -22004,7 +21937,9 @@
       <c r="A60" s="2">
         <v>41820</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="11">
+        <v>1</v>
+      </c>
       <c r="C60" s="3">
         <v>4.3066666666666675</v>
       </c>
@@ -22112,7 +22047,9 @@
       <c r="A61" s="2">
         <v>41912</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="11">
+        <v>1</v>
+      </c>
       <c r="C61" s="3">
         <v>4.28</v>
       </c>
@@ -22220,7 +22157,9 @@
       <c r="A62" s="2">
         <v>42004</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="11">
+        <v>1</v>
+      </c>
       <c r="C62" s="3">
         <v>4.2633333333333328</v>
       </c>
@@ -22328,7 +22267,9 @@
       <c r="A63" s="2">
         <v>42094</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="11">
+        <v>1</v>
+      </c>
       <c r="C63" s="3">
         <v>4.2766666666666664</v>
       </c>
@@ -22436,7 +22377,9 @@
       <c r="A64" s="2">
         <v>42185</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="11">
+        <v>0</v>
+      </c>
       <c r="C64" s="3">
         <v>4.5100000000000007</v>
       </c>
@@ -22544,7 +22487,9 @@
       <c r="A65" s="2">
         <v>42277</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="11">
+        <v>0</v>
+      </c>
       <c r="C65" s="3">
         <v>4.8066666666666675</v>
       </c>
@@ -22652,7 +22597,9 @@
       <c r="A66" s="2">
         <v>42369</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="11">
+        <v>0</v>
+      </c>
       <c r="C66" s="3">
         <v>5.0099999999999989</v>
       </c>
@@ -22760,7 +22707,9 @@
       <c r="A67" s="2">
         <v>42460</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="11">
+        <v>0</v>
+      </c>
       <c r="C67" s="3">
         <v>4.96</v>
       </c>
@@ -22868,7 +22817,9 @@
       <c r="A68" s="2">
         <v>42551</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="11">
+        <v>0</v>
+      </c>
       <c r="C68" s="3">
         <v>5.19</v>
       </c>
@@ -22976,7 +22927,9 @@
       <c r="A69" s="2">
         <v>42643</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="11">
+        <v>0</v>
+      </c>
       <c r="C69" s="3">
         <v>5.2566666666666668</v>
       </c>
@@ -23084,7 +23037,9 @@
       <c r="A70" s="2">
         <v>42735</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="11">
+        <v>0</v>
+      </c>
       <c r="C70" s="3">
         <v>5.166666666666667</v>
       </c>
@@ -23192,7 +23147,9 @@
       <c r="A71" s="2">
         <v>42825</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="11">
+        <v>0</v>
+      </c>
       <c r="C71" s="3">
         <v>5.2133333333333338</v>
       </c>
@@ -23300,7 +23257,9 @@
       <c r="A72" s="2">
         <v>42916</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" s="11">
+        <v>0</v>
+      </c>
       <c r="C72" s="3">
         <v>5.3500000000000005</v>
       </c>
@@ -23408,7 +23367,9 @@
       <c r="A73" s="2">
         <v>43008</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="11">
+        <v>0</v>
+      </c>
       <c r="C73" s="3">
         <v>5.4366666666666674</v>
       </c>
@@ -23516,7 +23477,9 @@
       <c r="A74" s="2">
         <v>43100</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" s="11">
+        <v>0</v>
+      </c>
       <c r="C74" s="3">
         <v>5.3566666666666665</v>
       </c>
@@ -23618,147 +23581,6 @@
       </c>
       <c r="AJ74">
         <v>-0.82174462705435081</v>
-      </c>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A75" s="2">
-        <v>43190</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="3">
-        <v>5.4799999999999995</v>
-      </c>
-      <c r="D75" s="4">
-        <v>3.2722333333333338</v>
-      </c>
-      <c r="E75">
-        <v>-267.57217761188281</v>
-      </c>
-      <c r="F75">
-        <v>-1.0907095220871392</v>
-      </c>
-      <c r="G75">
-        <v>0.788841650719735</v>
-      </c>
-      <c r="H75">
-        <v>15.933786374224137</v>
-      </c>
-      <c r="I75">
-        <v>13.814274621951014</v>
-      </c>
-      <c r="J75">
-        <v>17.139715474655418</v>
-      </c>
-      <c r="K75">
-        <v>64.273588750536405</v>
-      </c>
-      <c r="L75">
-        <v>2.0107795667446</v>
-      </c>
-      <c r="M75">
-        <v>53.7724813987153</v>
-      </c>
-      <c r="N75">
-        <v>-2.2809239611536101</v>
-      </c>
-      <c r="O75" s="4">
-        <v>37.927601871146003</v>
-      </c>
-      <c r="P75">
-        <v>2.1325059591054001</v>
-      </c>
-      <c r="Q75">
-        <v>18.120622475130698</v>
-      </c>
-      <c r="R75">
-        <v>0.55806037912494499</v>
-      </c>
-      <c r="S75">
-        <v>4.332459178055279</v>
-      </c>
-      <c r="T75">
-        <v>8.1182480608233476</v>
-      </c>
-      <c r="U75">
-        <v>3.6285820468462218</v>
-      </c>
-      <c r="V75">
-        <v>6.7256242938266686</v>
-      </c>
-      <c r="W75">
-        <v>-1.9289677480268801</v>
-      </c>
-      <c r="X75">
-        <v>27.725177724910345</v>
-      </c>
-      <c r="Y75">
-        <v>-2.90002880622098</v>
-      </c>
-      <c r="Z75">
-        <v>-3.3611040393228833E-2</v>
-      </c>
-      <c r="AA75">
-        <v>0.71856061351030198</v>
-      </c>
-      <c r="AB75">
-        <v>2.23110847414587E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
-        <v>43281</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="3">
-        <v>5.6433333333333335</v>
-      </c>
-      <c r="D76" s="4">
-        <v>3.4643000000000002</v>
-      </c>
-      <c r="E76">
-        <v>-89.583904791325793</v>
-      </c>
-      <c r="F76">
-        <v>0.16796655433331217</v>
-      </c>
-      <c r="G76">
-        <v>0.68052607674871901</v>
-      </c>
-      <c r="Q76">
-        <v>18.338112095170199</v>
-      </c>
-      <c r="R76">
-        <v>0.85383569035536699</v>
-      </c>
-      <c r="S76">
-        <v>9.5608885388431251</v>
-      </c>
-      <c r="T76">
-        <v>12.989916880450744</v>
-      </c>
-      <c r="U76">
-        <v>3.1297923806011325</v>
-      </c>
-      <c r="V76">
-        <v>6.7130072702326444</v>
-      </c>
-      <c r="W76">
-        <v>-1.23395997480316</v>
-      </c>
-      <c r="X76">
-        <v>28.00016508619975</v>
-      </c>
-      <c r="Y76">
-        <v>-2.0928195395153701</v>
-      </c>
-      <c r="Z76">
-        <v>1.6004337563904968E-2</v>
-      </c>
-      <c r="AA76">
-        <v>0.74074799397901403</v>
-      </c>
-      <c r="AB76">
-        <v>2.9209820907229098E-2</v>
       </c>
     </row>
   </sheetData>
@@ -23772,14 +23594,14 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -23802,23 +23624,25 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>37346</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>9.2865714138232001</v>
       </c>
@@ -23836,7 +23660,9 @@
       <c r="A4" s="2">
         <v>37437</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>15.3155027324001</v>
       </c>
@@ -23854,7 +23680,9 @@
       <c r="A5" s="2">
         <v>37529</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>21.880438351108999</v>
       </c>
@@ -23872,7 +23700,9 @@
       <c r="A6" s="2">
         <v>37621</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>24.020605079530299</v>
       </c>
@@ -23890,7 +23720,9 @@
       <c r="A7" s="2">
         <v>37711</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>23.065723968366601</v>
       </c>
@@ -23908,7 +23740,9 @@
       <c r="A8" s="2">
         <v>37802</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>28.532222643612702</v>
       </c>
@@ -23926,7 +23760,9 @@
       <c r="A9" s="2">
         <v>37894</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>28.606410972430201</v>
       </c>
@@ -23944,7 +23780,9 @@
       <c r="A10" s="2">
         <v>37986</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>20.763581100002199</v>
       </c>
@@ -23962,7 +23800,9 @@
       <c r="A11" s="2">
         <v>38077</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>21.041622029029501</v>
       </c>
@@ -23980,7 +23820,9 @@
       <c r="A12" s="2">
         <v>38168</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>17.8901858648046</v>
       </c>
@@ -23998,7 +23840,9 @@
       <c r="A13" s="2">
         <v>38260</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>14.1136996797413</v>
       </c>
@@ -24016,7 +23860,9 @@
       <c r="A14" s="2">
         <v>38352</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>19.731348310205998</v>
       </c>
@@ -24034,7 +23880,9 @@
       <c r="A15" s="2">
         <v>38442</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>16.390533398245001</v>
       </c>
@@ -24052,7 +23900,9 @@
       <c r="A16" s="2">
         <v>38533</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>16.304993048006999</v>
       </c>
@@ -24070,7 +23920,9 @@
       <c r="A17" s="2">
         <v>38625</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>21.564891448589101</v>
       </c>
@@ -24088,7 +23940,9 @@
       <c r="A18" s="2">
         <v>38717</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="11">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>11.317785265416401</v>
       </c>
@@ -24106,7 +23960,9 @@
       <c r="A19" s="2">
         <v>38807</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
       <c r="C19">
         <v>24.349984830022098</v>
       </c>
@@ -24124,7 +23980,9 @@
       <c r="A20" s="2">
         <v>38898</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
       <c r="C20">
         <v>17.863029710658999</v>
       </c>
@@ -24142,7 +24000,9 @@
       <c r="A21" s="2">
         <v>38990</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
       <c r="C21">
         <v>18.565790715129801</v>
       </c>
@@ -24160,7 +24020,9 @@
       <c r="A22" s="2">
         <v>39082</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
       <c r="C22">
         <v>18.987216475011898</v>
       </c>
@@ -24178,7 +24040,9 @@
       <c r="A23" s="2">
         <v>39172</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
       <c r="C23">
         <v>20.214998376030799</v>
       </c>
@@ -24196,7 +24060,9 @@
       <c r="A24" s="2">
         <v>39263</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
       <c r="C24">
         <v>23.0069707449275</v>
       </c>
@@ -24214,7 +24080,9 @@
       <c r="A25" s="2">
         <v>39355</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
       <c r="C25">
         <v>26.9164902097233</v>
       </c>
@@ -24232,7 +24100,9 @@
       <c r="A26" s="2">
         <v>39447</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
       <c r="C26">
         <v>22.582597397742902</v>
       </c>
@@ -24250,7 +24120,9 @@
       <c r="A27" s="2">
         <v>39538</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
       <c r="C27">
         <v>21.987479832093399</v>
       </c>
@@ -24268,7 +24140,9 @@
       <c r="A28" s="2">
         <v>39629</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>21.2326016669988</v>
       </c>
@@ -24286,7 +24160,9 @@
       <c r="A29" s="2">
         <v>39721</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="11">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>22.618554906626599</v>
       </c>
@@ -24304,7 +24180,9 @@
       <c r="A30" s="2">
         <v>39813</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
       <c r="C30">
         <v>24.951781455119601</v>
       </c>
@@ -24322,7 +24200,9 @@
       <c r="A31" s="2">
         <v>39903</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
       <c r="C31">
         <v>43.7841968643054</v>
       </c>
@@ -24340,7 +24220,9 @@
       <c r="A32" s="2">
         <v>39994</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
       <c r="C32">
         <v>44.719933515610897</v>
       </c>
@@ -24358,7 +24240,9 @@
       <c r="A33" s="2">
         <v>40086</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="11">
+        <v>1</v>
+      </c>
       <c r="C33">
         <v>37.456670673209899</v>
       </c>
@@ -24376,7 +24260,9 @@
       <c r="A34" s="2">
         <v>40178</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
       <c r="C34">
         <v>35.458243718942803</v>
       </c>
@@ -24394,7 +24280,9 @@
       <c r="A35" s="2">
         <v>40268</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="11">
+        <v>1</v>
+      </c>
       <c r="C35">
         <v>35.6418693871192</v>
       </c>
@@ -24412,7 +24300,9 @@
       <c r="A36" s="2">
         <v>40359</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="11">
+        <v>1</v>
+      </c>
       <c r="C36">
         <v>33.308425975156197</v>
       </c>
@@ -24430,7 +24320,9 @@
       <c r="A37" s="2">
         <v>40451</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
       <c r="C37">
         <v>34.232392787189397</v>
       </c>
@@ -24448,7 +24340,9 @@
       <c r="A38" s="2">
         <v>40543</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="11">
+        <v>0</v>
+      </c>
       <c r="C38">
         <v>36.402653718371099</v>
       </c>
@@ -24466,7 +24360,9 @@
       <c r="A39" s="2">
         <v>40633</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="11">
+        <v>0</v>
+      </c>
       <c r="C39">
         <v>28.073264105708901</v>
       </c>
@@ -24484,7 +24380,9 @@
       <c r="A40" s="2">
         <v>40724</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="11">
+        <v>0</v>
+      </c>
       <c r="C40">
         <v>27.979420662644799</v>
       </c>
@@ -24502,7 +24400,9 @@
       <c r="A41" s="2">
         <v>40816</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="11">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>19.989929992151399</v>
       </c>
@@ -24520,7 +24420,9 @@
       <c r="A42" s="2">
         <v>40908</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="11">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>30.317195074537999</v>
       </c>
@@ -24538,7 +24440,9 @@
       <c r="A43" s="2">
         <v>40999</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="11">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>23.338961268585098</v>
       </c>
@@ -24556,7 +24460,9 @@
       <c r="A44" s="2">
         <v>41090</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="11">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>28.1987710551597</v>
       </c>
@@ -24574,7 +24480,9 @@
       <c r="A45" s="2">
         <v>41182</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="11">
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>35.150511056529197</v>
       </c>
@@ -24592,7 +24500,9 @@
       <c r="A46" s="2">
         <v>41274</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="11">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>35.847055504101498</v>
       </c>
@@ -24610,7 +24520,9 @@
       <c r="A47" s="2">
         <v>41364</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="11">
+        <v>0</v>
+      </c>
       <c r="C47">
         <v>33.552421155524101</v>
       </c>
@@ -24628,7 +24540,9 @@
       <c r="A48" s="2">
         <v>41455</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="11">
+        <v>1</v>
+      </c>
       <c r="C48">
         <v>27.003135475550401</v>
       </c>
@@ -24646,7 +24560,9 @@
       <c r="A49" s="2">
         <v>41547</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="11">
+        <v>1</v>
+      </c>
       <c r="C49">
         <v>30.807935330396301</v>
       </c>
@@ -24664,7 +24580,9 @@
       <c r="A50" s="2">
         <v>41639</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="11">
+        <v>1</v>
+      </c>
       <c r="C50">
         <v>26.378388965505799</v>
       </c>
@@ -24682,7 +24600,9 @@
       <c r="A51" s="2">
         <v>41729</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
       <c r="C51">
         <v>27.920623515284401</v>
       </c>
@@ -24700,7 +24620,9 @@
       <c r="A52" s="2">
         <v>41820</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="11">
+        <v>1</v>
+      </c>
       <c r="C52">
         <v>31.4814038406485</v>
       </c>
@@ -24718,7 +24640,9 @@
       <c r="A53" s="2">
         <v>41912</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="11">
+        <v>1</v>
+      </c>
       <c r="C53">
         <v>17.581204029098998</v>
       </c>
@@ -24736,7 +24660,9 @@
       <c r="A54" s="2">
         <v>42004</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="11">
+        <v>1</v>
+      </c>
       <c r="C54">
         <v>25.693329657685499</v>
       </c>
@@ -24754,7 +24680,9 @@
       <c r="A55" s="2">
         <v>42094</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="11">
+        <v>1</v>
+      </c>
       <c r="C55">
         <v>21.0348375447332</v>
       </c>
@@ -24772,7 +24700,9 @@
       <c r="A56" s="2">
         <v>42185</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="11">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>25.622436297900599</v>
       </c>
@@ -24790,7 +24720,9 @@
       <c r="A57" s="2">
         <v>42277</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="11">
+        <v>0</v>
+      </c>
       <c r="C57">
         <v>22.468662211864199</v>
       </c>
@@ -24808,7 +24740,9 @@
       <c r="A58" s="2">
         <v>42369</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="11">
+        <v>0</v>
+      </c>
       <c r="C58">
         <v>22.959530048667901</v>
       </c>
@@ -24826,7 +24760,9 @@
       <c r="A59" s="2">
         <v>42460</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="11">
+        <v>0</v>
+      </c>
       <c r="C59">
         <v>27.939024129126</v>
       </c>
@@ -24844,7 +24780,9 @@
       <c r="A60" s="2">
         <v>42551</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="11">
+        <v>0</v>
+      </c>
       <c r="C60">
         <v>18.485330165413799</v>
       </c>
@@ -24862,7 +24800,9 @@
       <c r="A61" s="2">
         <v>42643</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="11">
+        <v>0</v>
+      </c>
       <c r="C61">
         <v>23.6339652096561</v>
       </c>
@@ -24880,7 +24820,9 @@
       <c r="A62" s="2">
         <v>42735</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="11">
+        <v>0</v>
+      </c>
       <c r="C62">
         <v>26.689065842083501</v>
       </c>
@@ -24898,7 +24840,9 @@
       <c r="A63" s="2">
         <v>42825</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="11">
+        <v>0</v>
+      </c>
       <c r="C63">
         <v>25.412084149130401</v>
       </c>
@@ -24916,7 +24860,9 @@
       <c r="A64" s="2">
         <v>42916</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="11">
+        <v>0</v>
+      </c>
       <c r="C64">
         <v>23.2506160324061</v>
       </c>
@@ -24934,7 +24880,9 @@
       <c r="A65" s="2">
         <v>43008</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="11">
+        <v>0</v>
+      </c>
       <c r="C65">
         <v>26.327752800452799</v>
       </c>
@@ -24952,7 +24900,9 @@
       <c r="A66" s="2">
         <v>43100</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="11">
+        <v>0</v>
+      </c>
       <c r="C66">
         <v>20.8950892552926</v>
       </c>
@@ -24970,36 +24920,10 @@
       <c r="A67" s="2">
         <v>43190</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67">
-        <v>18.419764797806302</v>
-      </c>
-      <c r="D67">
-        <v>-2.5157059477253498</v>
-      </c>
-      <c r="E67" s="3">
-        <v>18.436666666666667</v>
-      </c>
-      <c r="F67">
-        <v>8.0659905424366745</v>
-      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>43281</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68">
-        <v>18.162509600741799</v>
-      </c>
-      <c r="D68">
-        <v>-2.3390734009177598</v>
-      </c>
-      <c r="E68" s="3">
-        <v>15.51</v>
-      </c>
-      <c r="F68">
-        <v>7.4611194674406978</v>
       </c>
     </row>
   </sheetData>
@@ -25012,15 +24936,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -25049,29 +24973,31 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>37711</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
       <c r="C3" s="4">
         <v>100.8</v>
       </c>
@@ -25095,7 +25021,9 @@
       <c r="A4" s="6">
         <v>37802</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
       <c r="C4" s="4">
         <v>101.6</v>
       </c>
@@ -25119,7 +25047,9 @@
       <c r="A5" s="6">
         <v>37894</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
       <c r="C5" s="4">
         <v>102.4</v>
       </c>
@@ -25143,7 +25073,9 @@
       <c r="A6" s="6">
         <v>37986</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
       <c r="C6" s="4">
         <v>104.1</v>
       </c>
@@ -25167,7 +25099,9 @@
       <c r="A7" s="6">
         <v>38077</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
       <c r="C7" s="4">
         <v>107.5</v>
       </c>
@@ -25191,7 +25125,9 @@
       <c r="A8" s="6">
         <v>38168</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
       <c r="C8" s="4">
         <v>106.1</v>
       </c>
@@ -25215,7 +25151,9 @@
       <c r="A9" s="6">
         <v>38260</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
       <c r="C9" s="4">
         <v>104.7</v>
       </c>
@@ -25239,7 +25177,9 @@
       <c r="A10" s="6">
         <v>38352</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
       <c r="C10" s="4">
         <v>103.9</v>
       </c>
@@ -25263,7 +25203,9 @@
       <c r="A11" s="6">
         <v>38442</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
       <c r="C11" s="4">
         <v>101.8</v>
       </c>
@@ -25287,7 +25229,9 @@
       <c r="A12" s="6">
         <v>38533</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
       <c r="C12" s="4">
         <v>101.7</v>
       </c>
@@ -25311,7 +25255,9 @@
       <c r="A13" s="6">
         <v>38625</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
       <c r="C13" s="4">
         <v>101.6</v>
       </c>
@@ -25335,7 +25281,9 @@
       <c r="A14" s="6">
         <v>38717</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
       <c r="C14" s="4">
         <v>101.6</v>
       </c>
@@ -25359,7 +25307,9 @@
       <c r="A15" s="6">
         <v>38807</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
       <c r="C15" s="4">
         <v>100.3</v>
       </c>
@@ -25383,7 +25333,9 @@
       <c r="A16" s="6">
         <v>38898</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="11">
+        <v>1</v>
+      </c>
       <c r="C16" s="4">
         <v>101.4</v>
       </c>
@@ -25407,7 +25359,9 @@
       <c r="A17" s="6">
         <v>38990</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
       <c r="C17" s="4">
         <v>102.2</v>
       </c>
@@ -25431,7 +25385,9 @@
       <c r="A18" s="6">
         <v>39082</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
       <c r="C18" s="4">
         <v>102.3</v>
       </c>
@@ -25455,7 +25411,9 @@
       <c r="A19" s="6">
         <v>39172</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
       <c r="C19" s="4">
         <v>102.3</v>
       </c>
@@ -25479,7 +25437,9 @@
       <c r="A20" s="6">
         <v>39263</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
       <c r="C20" s="4">
         <v>103.5</v>
       </c>
@@ -25503,7 +25463,9 @@
       <c r="A21" s="6">
         <v>39355</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
       <c r="C21" s="4">
         <v>104</v>
       </c>
@@ -25527,7 +25489,9 @@
       <c r="A22" s="6">
         <v>39447</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
       <c r="C22" s="4">
         <v>105.8</v>
       </c>
@@ -25551,7 +25515,9 @@
       <c r="A23" s="6">
         <v>39538</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
       <c r="C23" s="4">
         <v>108.6</v>
       </c>
@@ -25575,7 +25541,9 @@
       <c r="A24" s="6">
         <v>39629</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
       <c r="C24" s="4">
         <v>111.3</v>
       </c>
@@ -25599,7 +25567,9 @@
       <c r="A25" s="6">
         <v>39721</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
       <c r="C25" s="4">
         <v>111.1</v>
       </c>
@@ -25623,7 +25593,9 @@
       <c r="A26" s="6">
         <v>39813</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
       <c r="C26" s="4">
         <v>104.7</v>
       </c>
@@ -25647,7 +25619,9 @@
       <c r="A27" s="6">
         <v>39903</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
       <c r="C27" s="4">
         <v>98.8</v>
       </c>
@@ -25671,7 +25645,9 @@
       <c r="A28" s="6">
         <v>39994</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
       <c r="C28" s="4">
         <v>96.1</v>
       </c>
@@ -25695,7 +25671,9 @@
       <c r="A29" s="6">
         <v>40086</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
       <c r="C29" s="4">
         <v>96.4</v>
       </c>
@@ -25719,7 +25697,9 @@
       <c r="A30" s="6">
         <v>40178</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
       <c r="C30" s="4">
         <v>99</v>
       </c>
@@ -25743,7 +25723,9 @@
       <c r="A31" s="6">
         <v>40268</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
       <c r="C31" s="4">
         <v>101.9</v>
       </c>
@@ -25767,7 +25749,9 @@
       <c r="A32" s="6">
         <v>40359</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
       <c r="C32" s="4">
         <v>103.6</v>
       </c>
@@ -25791,7 +25775,9 @@
       <c r="A33" s="6">
         <v>40451</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="11">
+        <v>1</v>
+      </c>
       <c r="C33" s="4">
         <v>103.5</v>
       </c>
@@ -25815,7 +25801,9 @@
       <c r="A34" s="6">
         <v>40543</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="11">
+        <v>0</v>
+      </c>
       <c r="C34" s="4">
         <v>105.4</v>
       </c>
@@ -25839,7 +25827,9 @@
       <c r="A35" s="6">
         <v>40633</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="11">
+        <v>0</v>
+      </c>
       <c r="C35" s="4">
         <v>106.5</v>
       </c>
@@ -25863,7 +25853,9 @@
       <c r="A36" s="6">
         <v>40724</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="11">
+        <v>0</v>
+      </c>
       <c r="C36" s="4">
         <v>106.7</v>
       </c>
@@ -25887,7 +25879,9 @@
       <c r="A37" s="6">
         <v>40816</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="11">
+        <v>0</v>
+      </c>
       <c r="C37" s="4">
         <v>107.3</v>
       </c>
@@ -25911,7 +25905,9 @@
       <c r="A38" s="6">
         <v>40908</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="11">
+        <v>0</v>
+      </c>
       <c r="C38" s="4">
         <v>105.7</v>
       </c>
@@ -25935,7 +25931,9 @@
       <c r="A39" s="6">
         <v>40999</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="11">
+        <v>0</v>
+      </c>
       <c r="C39" s="4">
         <v>102.3</v>
       </c>
@@ -25959,7 +25957,9 @@
       <c r="A40" s="6">
         <v>41090</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="11">
+        <v>0</v>
+      </c>
       <c r="C40" s="4">
         <v>101.6</v>
       </c>
@@ -25983,7 +25983,9 @@
       <c r="A41" s="6">
         <v>41182</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="11">
+        <v>0</v>
+      </c>
       <c r="C41" s="4">
         <v>100.24</v>
       </c>
@@ -26007,7 +26009,9 @@
       <c r="A42" s="6">
         <v>41274</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="11">
+        <v>0</v>
+      </c>
       <c r="C42" s="4">
         <v>100.32</v>
       </c>
@@ -26031,7 +26035,9 @@
       <c r="A43" s="6">
         <v>41364</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="11">
+        <v>0</v>
+      </c>
       <c r="C43" s="4">
         <v>100.17</v>
       </c>
@@ -26055,7 +26061,9 @@
       <c r="A44" s="6">
         <v>41455</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="11">
+        <v>1</v>
+      </c>
       <c r="C44" s="4">
         <v>99.89</v>
       </c>
@@ -26079,7 +26087,9 @@
       <c r="A45" s="6">
         <v>41547</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="11">
+        <v>1</v>
+      </c>
       <c r="C45" s="4">
         <v>100.1</v>
       </c>
@@ -26103,7 +26113,9 @@
       <c r="A46" s="6">
         <v>41639</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="11">
+        <v>1</v>
+      </c>
       <c r="C46" s="4">
         <v>100.87</v>
       </c>
@@ -26127,7 +26139,9 @@
       <c r="A47" s="6">
         <v>41729</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="11">
+        <v>1</v>
+      </c>
       <c r="C47" s="4">
         <v>101.1</v>
       </c>
@@ -26151,7 +26165,9 @@
       <c r="A48" s="6">
         <v>41820</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="11">
+        <v>1</v>
+      </c>
       <c r="C48" s="4">
         <v>100.6</v>
       </c>
@@ -26175,7 +26191,9 @@
       <c r="A49" s="6">
         <v>41912</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="11">
+        <v>1</v>
+      </c>
       <c r="C49" s="4">
         <v>100.41</v>
       </c>
@@ -26199,7 +26217,9 @@
       <c r="A50" s="6">
         <v>42004</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="11">
+        <v>1</v>
+      </c>
       <c r="C50" s="4">
         <v>99.9</v>
       </c>
@@ -26223,7 +26243,9 @@
       <c r="A51" s="6">
         <v>42094</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
       <c r="C51" s="4">
         <v>99.13</v>
       </c>
@@ -26247,7 +26269,9 @@
       <c r="A52" s="6">
         <v>42185</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B52" s="11">
+        <v>0</v>
+      </c>
       <c r="C52" s="4">
         <v>98.79</v>
       </c>
@@ -26271,7 +26295,9 @@
       <c r="A53" s="6">
         <v>42277</v>
       </c>
-      <c r="B53" s="6"/>
+      <c r="B53" s="11">
+        <v>0</v>
+      </c>
       <c r="C53" s="4">
         <v>97.7</v>
       </c>
@@ -26295,7 +26321,9 @@
       <c r="A54" s="6">
         <v>42369</v>
       </c>
-      <c r="B54" s="6"/>
+      <c r="B54" s="11">
+        <v>0</v>
+      </c>
       <c r="C54" s="4">
         <v>97.1</v>
       </c>
@@ -26319,7 +26347,9 @@
       <c r="A55" s="6">
         <v>42460</v>
       </c>
-      <c r="B55" s="6"/>
+      <c r="B55" s="11">
+        <v>0</v>
+      </c>
       <c r="C55" s="4">
         <v>97.32</v>
       </c>
@@ -26343,7 +26373,9 @@
       <c r="A56" s="6">
         <v>42551</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="11">
+        <v>0</v>
+      </c>
       <c r="C56" s="4">
         <v>99.2</v>
       </c>
@@ -26367,7 +26399,9 @@
       <c r="A57" s="6">
         <v>42643</v>
       </c>
-      <c r="B57" s="6"/>
+      <c r="B57" s="11">
+        <v>0</v>
+      </c>
       <c r="C57" s="4">
         <v>99.9</v>
       </c>
@@ -26391,7 +26425,9 @@
       <c r="A58" s="6">
         <v>42735</v>
       </c>
-      <c r="B58" s="6"/>
+      <c r="B58" s="11">
+        <v>0</v>
+      </c>
       <c r="C58" s="4">
         <v>101.4</v>
       </c>
@@ -26415,7 +26451,9 @@
       <c r="A59" s="6">
         <v>42825</v>
       </c>
-      <c r="B59" s="6"/>
+      <c r="B59" s="11">
+        <v>0</v>
+      </c>
       <c r="C59" s="4">
         <v>104.5</v>
       </c>
@@ -26439,7 +26477,9 @@
       <c r="A60" s="6">
         <v>42916</v>
       </c>
-      <c r="B60" s="6"/>
+      <c r="B60" s="11">
+        <v>0</v>
+      </c>
       <c r="C60" s="4">
         <v>104.7</v>
       </c>
@@ -26463,7 +26503,9 @@
       <c r="A61" s="6">
         <v>43008</v>
       </c>
-      <c r="B61" s="6"/>
+      <c r="B61" s="11">
+        <v>0</v>
+      </c>
       <c r="C61" s="4">
         <v>106.5</v>
       </c>
@@ -26487,7 +26529,9 @@
       <c r="A62" s="6">
         <v>43100</v>
       </c>
-      <c r="B62" s="6"/>
+      <c r="B62" s="11">
+        <v>0</v>
+      </c>
       <c r="C62" s="4">
         <v>107.4</v>
       </c>
@@ -26511,48 +26555,10 @@
       <c r="A63" s="6">
         <v>43190</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="4">
-        <v>106.2</v>
-      </c>
-      <c r="D63">
-        <v>-21.034696024803665</v>
-      </c>
-      <c r="E63">
-        <v>0.905650877625645</v>
-      </c>
-      <c r="F63">
-        <v>-9.4786170890921104E-2</v>
-      </c>
-      <c r="G63" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="H63" s="4">
-        <v>67.8</v>
-      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>43281</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="4">
-        <v>105.2</v>
-      </c>
-      <c r="D64">
-        <v>-17.891349169303851</v>
-      </c>
-      <c r="E64">
-        <v>0.93113360184890404</v>
-      </c>
-      <c r="F64">
-        <v>-5.6021453086057903E-2</v>
-      </c>
-      <c r="G64" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="H64" s="4">
-        <v>74.400000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -26565,15 +26571,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -26608,28 +26614,28 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -28257,17 +28263,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -28287,8 +28296,32 @@
       <c r="H1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -28296,29 +28329,55 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>38807</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
       <c r="C3">
         <v>4.8499999999999996</v>
       </c>
@@ -28337,12 +28396,38 @@
       <c r="H3">
         <v>-0.56044439962047399</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" s="4">
+        <v>8.0502333333333329</v>
+      </c>
+      <c r="J3">
+        <v>6.8729565647086696E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.0699043626587756</v>
+      </c>
+      <c r="L3" s="4">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="M3">
+        <v>1.55088575908977</v>
+      </c>
+      <c r="N3">
+        <v>-1.1817021473430099E-2</v>
+      </c>
+      <c r="O3">
+        <v>17.543269070510817</v>
+      </c>
+      <c r="P3">
+        <v>16.589039091897007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>38898</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
       <c r="C4">
         <v>4.8499999999999996</v>
       </c>
@@ -28361,12 +28446,38 @@
       <c r="H4">
         <v>-1.9277450630705499</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="4">
+        <v>8.012533333333332</v>
+      </c>
+      <c r="J4">
+        <v>0.116837015353012</v>
+      </c>
+      <c r="K4">
+        <v>-10.98352832387285</v>
+      </c>
+      <c r="L4" s="4">
+        <v>7.53</v>
+      </c>
+      <c r="M4">
+        <v>1.5517278231800899</v>
+      </c>
+      <c r="N4">
+        <v>-3.0443389272936101E-3</v>
+      </c>
+      <c r="O4">
+        <v>16.570971584678865</v>
+      </c>
+      <c r="P4">
+        <v>25.839203099649797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>38990</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
       <c r="C5">
         <v>4.92</v>
       </c>
@@ -28385,12 +28496,38 @@
       <c r="H5">
         <v>-2.3935304548042602</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" s="4">
+        <v>7.9670999999999994</v>
+      </c>
+      <c r="J5">
+        <v>0.16499917944529299</v>
+      </c>
+      <c r="K5">
+        <v>-2.3320059281552403</v>
+      </c>
+      <c r="L5" s="4">
+        <v>7.33</v>
+      </c>
+      <c r="M5">
+        <v>1.5477952212372801</v>
+      </c>
+      <c r="N5">
+        <v>7.1603638493522505E-4</v>
+      </c>
+      <c r="O5">
+        <v>15.18328060763862</v>
+      </c>
+      <c r="P5">
+        <v>28.372423848336521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>39082</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
       <c r="C6">
         <v>5.01</v>
       </c>
@@ -28409,12 +28546,38 @@
       <c r="H6">
         <v>-2.9519186861661799</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" s="4">
+        <v>7.8640666666666661</v>
+      </c>
+      <c r="J6">
+        <v>0.143115558359835</v>
+      </c>
+      <c r="K6">
+        <v>14.224049418661474</v>
+      </c>
+      <c r="L6" s="4">
+        <v>7.09</v>
+      </c>
+      <c r="M6">
+        <v>1.5347828422280001</v>
+      </c>
+      <c r="N6">
+        <v>-4.87441611530803E-3</v>
+      </c>
+      <c r="O6">
+        <v>15.070717388141095</v>
+      </c>
+      <c r="P6">
+        <v>-10.507481290645329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>39172</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
       <c r="C7">
         <v>5.3</v>
       </c>
@@ -28433,12 +28596,38 @@
       <c r="H7">
         <v>2.9920616794509098</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" s="4">
+        <v>7.761166666666667</v>
+      </c>
+      <c r="J7">
+        <v>0.130982528045399</v>
+      </c>
+      <c r="K7">
+        <v>4.6298241384270575</v>
+      </c>
+      <c r="L7" s="4">
+        <v>6.63</v>
+      </c>
+      <c r="M7">
+        <v>1.54236797304714</v>
+      </c>
+      <c r="N7">
+        <v>9.8277333989031899E-3</v>
+      </c>
+      <c r="O7">
+        <v>14.053493650756824</v>
+      </c>
+      <c r="P7">
+        <v>14.900123613452712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>39263</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>5.88</v>
       </c>
@@ -28457,12 +28646,38 @@
       <c r="H8">
         <v>2.82066821978185</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" s="4">
+        <v>7.6749000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.12830701722677099</v>
+      </c>
+      <c r="K8">
+        <v>4.3159357721869336</v>
+      </c>
+      <c r="L8" s="4">
+        <v>6.45</v>
+      </c>
+      <c r="M8">
+        <v>1.5253156641886501</v>
+      </c>
+      <c r="N8">
+        <v>-4.4327513637298899E-4</v>
+      </c>
+      <c r="O8">
+        <v>14.339411799806845</v>
+      </c>
+      <c r="P8">
+        <v>30.837201123769546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>39355</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
       <c r="C9">
         <v>6.98</v>
       </c>
@@ -28481,12 +28696,38 @@
       <c r="H9">
         <v>3.0148832900752902</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" s="4">
+        <v>7.5605333333333329</v>
+      </c>
+      <c r="J9">
+        <v>0.10471409054870499</v>
+      </c>
+      <c r="K9">
+        <v>-7.993673824304361</v>
+      </c>
+      <c r="L9" s="4">
+        <v>6.17</v>
+      </c>
+      <c r="M9">
+        <v>1.5018234588335799</v>
+      </c>
+      <c r="N9">
+        <v>-1.7526851431353099E-2</v>
+      </c>
+      <c r="O9">
+        <v>13.262211278516677</v>
+      </c>
+      <c r="P9">
+        <v>23.158555865960324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>39447</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
       <c r="C10">
         <v>8.9499999999999993</v>
       </c>
@@ -28505,12 +28746,38 @@
       <c r="H10">
         <v>2.1069648606965101</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="4">
+        <v>7.4307000000000007</v>
+      </c>
+      <c r="J10">
+        <v>5.9748620770179998E-2</v>
+      </c>
+      <c r="K10">
+        <v>-9.8994242661463829</v>
+      </c>
+      <c r="L10" s="4">
+        <v>6.17</v>
+      </c>
+      <c r="M10">
+        <v>1.4981912718871999</v>
+      </c>
+      <c r="N10">
+        <v>-1.51597564250745E-2</v>
+      </c>
+      <c r="O10">
+        <v>12.143806486019232</v>
+      </c>
+      <c r="P10">
+        <v>80.760488373766364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>39538</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
       <c r="C11">
         <v>9.4</v>
       </c>
@@ -28529,12 +28796,38 @@
       <c r="H11">
         <v>0.437298595308444</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="4">
+        <v>7.1610333333333331</v>
+      </c>
+      <c r="J11">
+        <v>-0.12710996565641</v>
+      </c>
+      <c r="K11">
+        <v>47.292387012142193</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5.78</v>
+      </c>
+      <c r="M11">
+        <v>1.48208092754992</v>
+      </c>
+      <c r="N11">
+        <v>-2.57058874792899E-2</v>
+      </c>
+      <c r="O11">
+        <v>11.792452259192215</v>
+      </c>
+      <c r="P11">
+        <v>26.051465426316799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>39629</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>7.85</v>
       </c>
@@ -28553,12 +28846,38 @@
       <c r="H12">
         <v>-0.47603557026397703</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" s="4">
+        <v>6.9567333333333332</v>
+      </c>
+      <c r="J12">
+        <v>-0.24641958516665899</v>
+      </c>
+      <c r="K12">
+        <v>31.146538132371226</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5.58</v>
+      </c>
+      <c r="M12">
+        <v>1.46905383244891</v>
+      </c>
+      <c r="N12">
+        <v>-3.3620084681227298E-2</v>
+      </c>
+      <c r="O12">
+        <v>10.346618838904652</v>
+      </c>
+      <c r="P12">
+        <v>30.661245750664712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>39721</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>5.5</v>
       </c>
@@ -28577,12 +28896,38 @@
       <c r="H13">
         <v>-1.10903711063295</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="4">
+        <v>6.8399333333333336</v>
+      </c>
+      <c r="J13">
+        <v>-0.28865871046762598</v>
+      </c>
+      <c r="K13">
+        <v>23.225355297312426</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5.49</v>
+      </c>
+      <c r="M13">
+        <v>1.4622427267950699</v>
+      </c>
+      <c r="N13">
+        <v>-3.5769788354709398E-2</v>
+      </c>
+      <c r="O13">
+        <v>11.334211552635926</v>
+      </c>
+      <c r="P13">
+        <v>2.4030859547470467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>39813</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
       <c r="C14">
         <v>1.79</v>
       </c>
@@ -28601,12 +28946,38 @@
       <c r="H14">
         <v>-1.8901299040099699</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14" s="4">
+        <v>6.8342000000000001</v>
+      </c>
+      <c r="J14">
+        <v>-0.224151802025646</v>
+      </c>
+      <c r="K14">
+        <v>-22.31577457401082</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="M14">
+        <v>1.44510104257049</v>
+      </c>
+      <c r="N14">
+        <v>-4.8680734499443698E-2</v>
+      </c>
+      <c r="O14">
+        <v>15.634626894922738</v>
+      </c>
+      <c r="P14">
+        <v>12.816922180953709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>39903</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
       <c r="C15">
         <v>-0.19</v>
       </c>
@@ -28625,12 +28996,38 @@
       <c r="H15">
         <v>-2.2352199867734801</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="4">
+        <v>6.8359999999999994</v>
+      </c>
+      <c r="J15">
+        <v>-0.143042908613005</v>
+      </c>
+      <c r="K15">
+        <v>-23.707489889266803</v>
+      </c>
+      <c r="L15" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="M15">
+        <v>1.4543983548765</v>
+      </c>
+      <c r="N15">
+        <v>-3.5540159878175402E-2</v>
+      </c>
+      <c r="O15">
+        <v>25.898846195868735</v>
+      </c>
+      <c r="P15">
+        <v>-18.530841157603678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>39994</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="11">
+        <v>1</v>
+      </c>
       <c r="C16">
         <v>-0.47</v>
       </c>
@@ -28649,12 +29046,38 @@
       <c r="H16">
         <v>-1.42717954715824</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="4">
+        <v>6.8296333333333337</v>
+      </c>
+      <c r="J16">
+        <v>-8.5335984125721895E-2</v>
+      </c>
+      <c r="K16">
+        <v>-15.22953863501213</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="M16">
+        <v>1.4857574567065699</v>
+      </c>
+      <c r="N16">
+        <v>-6.5165790244847699E-4</v>
+      </c>
+      <c r="O16">
+        <v>29.698411576184938</v>
+      </c>
+      <c r="P16">
+        <v>-9.8883290937983599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>40086</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
       <c r="C17">
         <v>1.19</v>
       </c>
@@ -28673,12 +29096,38 @@
       <c r="H17">
         <v>-6.4510772139481504E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17" s="4">
+        <v>6.831033333333334</v>
+      </c>
+      <c r="J17">
+        <v>-2.09455806419356E-2</v>
+      </c>
+      <c r="K17">
+        <v>-4.5180134290674099</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="M17">
+        <v>1.51396320365569</v>
+      </c>
+      <c r="N17">
+        <v>3.08654532176393E-2</v>
+      </c>
+      <c r="O17">
+        <v>28.532567576091509</v>
+      </c>
+      <c r="P17">
+        <v>23.568624084474571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>40178</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
       <c r="C18">
         <v>4.43</v>
       </c>
@@ -28697,12 +29146,38 @@
       <c r="H18">
         <v>0.84474529825486699</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18" s="4">
+        <v>6.8275999999999994</v>
+      </c>
+      <c r="J18">
+        <v>4.0267084750297499E-2</v>
+      </c>
+      <c r="K18">
+        <v>44.840362523495841</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="M18">
+        <v>1.51245664314854</v>
+      </c>
+      <c r="N18">
+        <v>3.2548454387867298E-2</v>
+      </c>
+      <c r="O18">
+        <v>25.588509273935003</v>
+      </c>
+      <c r="P18">
+        <v>5.246397698813305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>40268</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
       <c r="C19">
         <v>8.99</v>
       </c>
@@ -28721,12 +29196,38 @@
       <c r="H19">
         <v>1.73888166565043</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19" s="4">
+        <v>6.8268999999999993</v>
+      </c>
+      <c r="J19">
+        <v>9.8453885950821204E-2</v>
+      </c>
+      <c r="K19">
+        <v>5.3253419748865589</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="M19">
+        <v>1.512473111726</v>
+      </c>
+      <c r="N19">
+        <v>3.5709624721955199E-2</v>
+      </c>
+      <c r="O19">
+        <v>18.875619476496055</v>
+      </c>
+      <c r="P19">
+        <v>53.318233104282797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>40359</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
       <c r="C20">
         <v>10.62</v>
       </c>
@@ -28745,12 +29246,38 @@
       <c r="H20">
         <v>2.0421904876635599</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I20" s="4">
+        <v>6.8233666666666677</v>
+      </c>
+      <c r="J20">
+        <v>0.14374152993151301</v>
+      </c>
+      <c r="K20">
+        <v>28.220016626278845</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="M20">
+        <v>1.51664816788765</v>
+      </c>
+      <c r="N20">
+        <v>4.3041122508331302E-2</v>
+      </c>
+      <c r="O20">
+        <v>15.121517655923595</v>
+      </c>
+      <c r="P20">
+        <v>92.66146824208316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>40451</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
       <c r="C21">
         <v>8.6999999999999993</v>
       </c>
@@ -28769,12 +29296,38 @@
       <c r="H21">
         <v>1.8903378566956699</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I21" s="4">
+        <v>6.7712666666666665</v>
+      </c>
+      <c r="J21">
+        <v>0.14619518998553799</v>
+      </c>
+      <c r="K21">
+        <v>5.9479835169401136</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M21">
+        <v>1.4910089433874201</v>
+      </c>
+      <c r="N21">
+        <v>2.0604360774323101E-2</v>
+      </c>
+      <c r="O21">
+        <v>16.546513871590243</v>
+      </c>
+      <c r="P21">
+        <v>77.365765400952839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>40543</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>7.49</v>
       </c>
@@ -28793,12 +29346,38 @@
       <c r="H22">
         <v>1.7883322513275099</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I22" s="4">
+        <v>6.6601666666666661</v>
+      </c>
+      <c r="J22">
+        <v>8.5790200949856996E-2</v>
+      </c>
+      <c r="K22">
+        <v>11.423338156294628</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M22">
+        <v>1.5085553075504901</v>
+      </c>
+      <c r="N22">
+        <v>4.1406589416941003E-2</v>
+      </c>
+      <c r="O22">
+        <v>14.355569940385555</v>
+      </c>
+      <c r="P22">
+        <v>28.2875653734407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>40633</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>5.89</v>
       </c>
@@ -28817,12 +29396,38 @@
       <c r="H23">
         <v>1.22212388624596</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I23" s="4">
+        <v>6.5840000000000005</v>
+      </c>
+      <c r="J23">
+        <v>5.24105256676827E-2</v>
+      </c>
+      <c r="K23">
+        <v>18.65838322310324</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M23">
+        <v>1.48546088837863</v>
+      </c>
+      <c r="N23">
+        <v>2.16159392843016E-2</v>
+      </c>
+      <c r="O23">
+        <v>12.666107767041909</v>
+      </c>
+      <c r="P23">
+        <v>22.873722539078873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>40724</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>4.2699999999999996</v>
       </c>
@@ -28841,12 +29446,38 @@
       <c r="H24">
         <v>0.74828496538905698</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I24" s="4">
+        <v>6.5019333333333336</v>
+      </c>
+      <c r="J24">
+        <v>1.58865081066395E-2</v>
+      </c>
+      <c r="K24">
+        <v>-1.8265986098258593</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.4695327200633299</v>
+      </c>
+      <c r="N24">
+        <v>9.0080682958553204E-3</v>
+      </c>
+      <c r="O24">
+        <v>12.713260593032956</v>
+      </c>
+      <c r="P24">
+        <v>8.2232314653134058</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>40816</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>4.09</v>
       </c>
@@ -28865,12 +29496,38 @@
       <c r="H25">
         <v>0.168091412243423</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I25" s="4">
+        <v>6.4179000000000004</v>
+      </c>
+      <c r="J25">
+        <v>-2.39842643441949E-2</v>
+      </c>
+      <c r="K25">
+        <v>0.23446375794900431</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="M25">
+        <v>1.4674810703285599</v>
+      </c>
+      <c r="N25">
+        <v>1.02483579414796E-2</v>
+      </c>
+      <c r="O25">
+        <v>9.5785720462999713</v>
+      </c>
+      <c r="P25">
+        <v>11.396969305382889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>40908</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>2.29</v>
       </c>
@@ -28889,12 +29546,38 @@
       <c r="H26">
         <v>-0.288029008358343</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I26" s="4">
+        <v>6.3418333333333337</v>
+      </c>
+      <c r="J26">
+        <v>-6.7414133363310896E-2</v>
+      </c>
+      <c r="K26">
+        <v>-14.963147580597909</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.45239097099203</v>
+      </c>
+      <c r="N26">
+        <v>-1.6286762378927499E-3</v>
+      </c>
+      <c r="O26">
+        <v>13.085688009722992</v>
+      </c>
+      <c r="P26">
+        <v>-1.7281568836786241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>40999</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="11">
+        <v>0</v>
+      </c>
       <c r="C27">
         <v>0.14000000000000001</v>
       </c>
@@ -28913,12 +29596,38 @@
       <c r="H27">
         <v>-0.88916911679551802</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I27" s="4">
+        <v>6.3057333333333334</v>
+      </c>
+      <c r="J27">
+        <v>-6.4600450463982106E-2</v>
+      </c>
+      <c r="K27">
+        <v>-10.314649434494994</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="M27">
+        <v>1.4393733492621099</v>
+      </c>
+      <c r="N27">
+        <v>-1.1569028534383199E-2</v>
+      </c>
+      <c r="O27">
+        <v>14.483977063335105</v>
+      </c>
+      <c r="P27">
+        <v>-3.5933598040212122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>41090</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>-1.1200000000000001</v>
       </c>
@@ -28937,12 +29646,38 @@
       <c r="H28">
         <v>-1.1849118097276401</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I28" s="4">
+        <v>6.3068666666666671</v>
+      </c>
+      <c r="J28">
+        <v>-3.5698433326134003E-2</v>
+      </c>
+      <c r="K28">
+        <v>-8.5288239458435964</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="M28">
+        <v>1.4239332602383199</v>
+      </c>
+      <c r="N28">
+        <v>-2.4123547426314802E-2</v>
+      </c>
+      <c r="O28">
+        <v>16.378281528197729</v>
+      </c>
+      <c r="P28">
+        <v>2.0674774989109861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>41182</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="11">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>-1.17</v>
       </c>
@@ -28961,12 +29696,38 @@
       <c r="H29">
         <v>-0.94437405729441404</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I29" s="4">
+        <v>6.3344666666666667</v>
+      </c>
+      <c r="J29">
+        <v>9.1770756518529898E-3</v>
+      </c>
+      <c r="K29">
+        <v>-8.9789642503660296</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="M29">
+        <v>1.42701970175293</v>
+      </c>
+      <c r="N29">
+        <v>-1.8391908016426001E-2</v>
+      </c>
+      <c r="O29">
+        <v>17.338427120301233</v>
+      </c>
+      <c r="P29">
+        <v>0.98888290020935754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>41274</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
       <c r="C30">
         <v>-0.52</v>
       </c>
@@ -28985,12 +29746,38 @@
       <c r="H30">
         <v>-0.83549913989672198</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I30" s="4">
+        <v>6.2999000000000001</v>
+      </c>
+      <c r="J30" s="8">
+        <v>-6.6454407575910994E-5</v>
+      </c>
+      <c r="K30">
+        <v>-6.1536369974683343</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="M30">
+        <v>1.4237756608130201</v>
+      </c>
+      <c r="N30">
+        <v>-1.9264719015504399E-2</v>
+      </c>
+      <c r="O30">
+        <v>15.283142866082922</v>
+      </c>
+      <c r="P30">
+        <v>2.2053374087164217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>41363</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="11">
+        <v>0</v>
+      </c>
       <c r="C31">
         <v>1.87</v>
       </c>
@@ -29009,12 +29796,38 @@
       <c r="H31">
         <v>-0.61558421414415998</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I31" s="4">
+        <v>6.2790666666666661</v>
+      </c>
+      <c r="J31">
+        <v>-3.5272900542562199E-3</v>
+      </c>
+      <c r="K31">
+        <v>-1.4160705487346568</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="M31">
+        <v>1.4166936592025701</v>
+      </c>
+      <c r="N31">
+        <v>-2.42715594149274E-2</v>
+      </c>
+      <c r="O31">
+        <v>13.908325342702637</v>
+      </c>
+      <c r="P31">
+        <v>0.16938568488898084</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>41455</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
       <c r="C32">
         <v>5.28</v>
       </c>
@@ -29033,12 +29846,38 @@
       <c r="H32">
         <v>-0.210950049950589</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I32" s="4">
+        <v>6.2053000000000003</v>
+      </c>
+      <c r="J32">
+        <v>-6.1303656304024103E-2</v>
+      </c>
+      <c r="K32">
+        <v>4.1113818687237407</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="M32">
+        <v>1.43809099326238</v>
+      </c>
+      <c r="N32">
+        <v>-1.10519319986757E-3</v>
+      </c>
+      <c r="O32">
+        <v>10.828508926444126</v>
+      </c>
+      <c r="P32">
+        <v>5.5912408534489693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>41547</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="11">
+        <v>1</v>
+      </c>
       <c r="C33">
         <v>7.51</v>
       </c>
@@ -29057,12 +29896,38 @@
       <c r="H33">
         <v>-5.7274918063114903E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33" s="4">
+        <v>6.1673666666666662</v>
+      </c>
+      <c r="J33">
+        <v>-9.3491573616429194E-2</v>
+      </c>
+      <c r="K33">
+        <v>4.1262002356182474</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="M33">
+        <v>1.4339734455976401</v>
+      </c>
+      <c r="N33">
+        <v>-3.7547283664731701E-3</v>
+      </c>
+      <c r="O33">
+        <v>10.831254849244436</v>
+      </c>
+      <c r="P33">
+        <v>9.237308843313059</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>41639</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
       <c r="C34">
         <v>9.07</v>
       </c>
@@ -29081,12 +29946,38 @@
       <c r="H34">
         <v>-0.18058254612904501</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I34" s="4">
+        <v>6.1308333333333325</v>
+      </c>
+      <c r="J34">
+        <v>-0.13014874766582499</v>
+      </c>
+      <c r="K34">
+        <v>-3.1412337161573967</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.44191838709426</v>
+      </c>
+      <c r="N34">
+        <v>5.3630061155789301E-3</v>
+      </c>
+      <c r="O34">
+        <v>9.6115039590499993</v>
+      </c>
+      <c r="P34">
+        <v>26.155755411098806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>41729</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="11">
+        <v>1</v>
+      </c>
       <c r="C35">
         <v>8.23</v>
       </c>
@@ -29105,12 +29996,38 @@
       <c r="H35">
         <v>-0.13514922120268799</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I35" s="4">
+        <v>6.117633333333333</v>
+      </c>
+      <c r="J35">
+        <v>-0.14127445189305701</v>
+      </c>
+      <c r="K35">
+        <v>0.52941607958534909</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="M35">
+        <v>1.4319159373352699</v>
+      </c>
+      <c r="N35">
+        <v>-3.7537233210382902E-3</v>
+      </c>
+      <c r="O35">
+        <v>10.069254079916769</v>
+      </c>
+      <c r="P35">
+        <v>25.713754592504795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>41820</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="11">
+        <v>1</v>
+      </c>
       <c r="C36">
         <v>5.33</v>
       </c>
@@ -29129,12 +30046,38 @@
       <c r="H36">
         <v>-0.32132323026471699</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I36" s="4">
+        <v>6.1608333333333327</v>
+      </c>
+      <c r="J36">
+        <v>-0.106786616771676</v>
+      </c>
+      <c r="K36">
+        <v>-3.7040851549687326</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="M36">
+        <v>1.4215229462683401</v>
+      </c>
+      <c r="N36">
+        <v>-1.35432717578341E-2</v>
+      </c>
+      <c r="O36">
+        <v>12.875388955534252</v>
+      </c>
+      <c r="P36">
+        <v>22.344365080782485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>41912</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
       <c r="C37">
         <v>0.64</v>
       </c>
@@ -29153,12 +30096,38 @@
       <c r="H37">
         <v>-0.64089458852634995</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I37" s="4">
+        <v>6.1567666666666661</v>
+      </c>
+      <c r="J37">
+        <v>-0.11651487624279699</v>
+      </c>
+      <c r="K37">
+        <v>-11.623546744606495</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M37">
+        <v>1.43239442722699</v>
+      </c>
+      <c r="N37">
+        <v>-2.3434848133927402E-3</v>
+      </c>
+      <c r="O37">
+        <v>11.437692057802559</v>
+      </c>
+      <c r="P37">
+        <v>34.286478857689232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>42004</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
       <c r="C38">
         <v>-3.45</v>
       </c>
@@ -29177,12 +30146,38 @@
       <c r="H38">
         <v>-0.681867770475442</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I38" s="4">
+        <v>6.137033333333334</v>
+      </c>
+      <c r="J38">
+        <v>-0.150222122612055</v>
+      </c>
+      <c r="K38">
+        <v>9.7291340713952152</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="M38">
+        <v>1.44240045233201</v>
+      </c>
+      <c r="N38">
+        <v>7.7313152258200396E-3</v>
+      </c>
+      <c r="O38">
+        <v>12.010180279163338</v>
+      </c>
+      <c r="P38">
+        <v>24.681483739873805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>42094</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="11">
+        <v>1</v>
+      </c>
       <c r="C39">
         <v>-5.66</v>
       </c>
@@ -29201,12 +30196,38 @@
       <c r="H39">
         <v>-0.89136058472484303</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I39" s="4">
+        <v>6.1372666666666662</v>
+      </c>
+      <c r="J39">
+        <v>-0.167598426387431</v>
+      </c>
+      <c r="K39">
+        <v>9.6581975364779833</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="M39">
+        <v>1.4615031637095299</v>
+      </c>
+      <c r="N39">
+        <v>2.6660340756688099E-2</v>
+      </c>
+      <c r="O39">
+        <v>10.649069110762962</v>
+      </c>
+      <c r="P39">
+        <v>27.230320551795284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>42185</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="11">
+        <v>0</v>
+      </c>
       <c r="C40">
         <v>-5.91</v>
       </c>
@@ -29225,12 +30246,38 @@
       <c r="H40">
         <v>-1.0770514136718301</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I40" s="4">
+        <v>6.1202000000000005</v>
+      </c>
+      <c r="J40">
+        <v>-0.208239969250269</v>
+      </c>
+      <c r="K40">
+        <v>3.3763477726441709</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M40">
+        <v>1.44119349350902</v>
+      </c>
+      <c r="N40">
+        <v>5.9467621274191798E-3</v>
+      </c>
+      <c r="O40">
+        <v>11.208974733919112</v>
+      </c>
+      <c r="P40">
+        <v>7.9890179723353967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>42277</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="11">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>-3.11</v>
       </c>
@@ -29249,12 +30296,38 @@
       <c r="H41">
         <v>-1.0957842674049301</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I41" s="4">
+        <v>6.2637999999999998</v>
+      </c>
+      <c r="J41">
+        <v>-9.1638183865430101E-2</v>
+      </c>
+      <c r="K41">
+        <v>10.223398208562646</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="M41">
+        <v>1.44394016502295</v>
+      </c>
+      <c r="N41">
+        <v>8.0548781162477195E-3</v>
+      </c>
+      <c r="O41">
+        <v>12.926844086147515</v>
+      </c>
+      <c r="P41">
+        <v>-5.1488546268759485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>42369</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="11">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>-0.28999999999999998</v>
       </c>
@@ -29273,12 +30346,38 @@
       <c r="H42">
         <v>-1.0405044667382399</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I42" s="4">
+        <v>6.3875999999999999</v>
+      </c>
+      <c r="J42">
+        <v>1.28456470830125E-2</v>
+      </c>
+      <c r="K42">
+        <v>-0.11243528830425636</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="M42">
+        <v>1.4439350338566701</v>
+      </c>
+      <c r="N42">
+        <v>7.1684030879586302E-3</v>
+      </c>
+      <c r="O42">
+        <v>13.818849853035235</v>
+      </c>
+      <c r="P42">
+        <v>-13.998879972816304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>42460</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="11">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>2.14</v>
       </c>
@@ -29297,12 +30396,38 @@
       <c r="H43">
         <v>-0.80515546220648504</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I43" s="4">
+        <v>6.5300666666666665</v>
+      </c>
+      <c r="J43">
+        <v>0.12590751477590001</v>
+      </c>
+      <c r="K43">
+        <v>5.793110930014592</v>
+      </c>
+      <c r="L43" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="M43">
+        <v>1.4370982869289599</v>
+      </c>
+      <c r="N43">
+        <v>-8.0565157805678701E-4</v>
+      </c>
+      <c r="O43">
+        <v>14.215651245926082</v>
+      </c>
+      <c r="P43">
+        <v>-0.92499268231035592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>42551</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="11">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>5.22</v>
       </c>
@@ -29321,12 +30446,38 @@
       <c r="H44">
         <v>-0.27742102679360398</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I44" s="4">
+        <v>6.5316999999999998</v>
+      </c>
+      <c r="J44">
+        <v>9.8235381864648197E-2</v>
+      </c>
+      <c r="K44">
+        <v>6.0470568968684626</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="M44">
+        <v>1.4234553819292199</v>
+      </c>
+      <c r="N44">
+        <v>-1.5859483983715599E-2</v>
+      </c>
+      <c r="O44">
+        <v>13.199842476694865</v>
+      </c>
+      <c r="P44">
+        <v>-4.2277394161560853</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>42643</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="11">
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>8</v>
       </c>
@@ -29345,12 +30496,38 @@
       <c r="H45">
         <v>0.30313856416704898</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I45" s="4">
+        <v>6.6654333333333327</v>
+      </c>
+      <c r="J45">
+        <v>0.210438518803932</v>
+      </c>
+      <c r="K45">
+        <v>1.5046553327618633</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="M45">
+        <v>1.4115640922238</v>
+      </c>
+      <c r="N45">
+        <v>-2.9452473021750199E-2</v>
+      </c>
+      <c r="O45">
+        <v>13.819910835010464</v>
+      </c>
+      <c r="P45">
+        <v>3.5398431138861435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>42735</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="11">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>10.92</v>
       </c>
@@ -29369,12 +30546,38 @@
       <c r="H46">
         <v>0.82333178310307797</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I46" s="4">
+        <v>6.8333000000000004</v>
+      </c>
+      <c r="J46">
+        <v>0.34306479893476799</v>
+      </c>
+      <c r="K46">
+        <v>3.2121912172116933</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="M46">
+        <v>1.4058278339033801</v>
+      </c>
+      <c r="N46">
+        <v>-3.7188442683072198E-2</v>
+      </c>
+      <c r="O46">
+        <v>14.056997355882762</v>
+      </c>
+      <c r="P46">
+        <v>18.126527692244622</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>42825</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="11">
+        <v>0</v>
+      </c>
       <c r="C47">
         <v>10.71</v>
       </c>
@@ -29393,12 +30596,38 @@
       <c r="H47">
         <v>1.0405360128949801</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I47" s="4">
+        <v>6.8854333333333342</v>
+      </c>
+      <c r="J47">
+        <v>0.376530571523915</v>
+      </c>
+      <c r="K47">
+        <v>-0.72016356259299974</v>
+      </c>
+      <c r="L47" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="M47">
+        <v>1.41881702740283</v>
+      </c>
+      <c r="N47">
+        <v>-2.64858048187641E-2</v>
+      </c>
+      <c r="O47">
+        <v>12.443273474887029</v>
+      </c>
+      <c r="P47">
+        <v>14.908876465109772</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>42916</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="11">
+        <v>0</v>
+      </c>
       <c r="C48">
         <v>9.7899999999999991</v>
       </c>
@@ -29417,12 +30646,38 @@
       <c r="H48">
         <v>1.1070481293859</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I48" s="4">
+        <v>6.8563666666666663</v>
+      </c>
+      <c r="J48">
+        <v>0.32103777033880398</v>
+      </c>
+      <c r="K48">
+        <v>-3.2175304837850436</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="M48">
+        <v>1.4392834157767</v>
+      </c>
+      <c r="N48">
+        <v>-8.5584058835512702E-3</v>
+      </c>
+      <c r="O48">
+        <v>9.7577540967767877</v>
+      </c>
+      <c r="P48">
+        <v>16.27059664736532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>43008</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="11">
+        <v>0</v>
+      </c>
       <c r="C49">
         <v>7.68</v>
       </c>
@@ -29441,12 +30696,38 @@
       <c r="H49">
         <v>1.1302555710512101</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I49" s="4">
+        <v>6.6674666666666669</v>
+      </c>
+      <c r="J49">
+        <v>0.10655299753965899</v>
+      </c>
+      <c r="K49">
+        <v>1.4044720830839987</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="M49">
+        <v>1.4457486416415699</v>
+      </c>
+      <c r="N49">
+        <v>-4.8336391421179804E-3</v>
+      </c>
+      <c r="O49">
+        <v>8.871310273973231</v>
+      </c>
+      <c r="P49">
+        <v>21.913180666109469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>43100</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="11">
+        <v>0</v>
+      </c>
       <c r="C50">
         <v>5.0999999999999996</v>
       </c>
@@ -29465,23 +30746,39 @@
       <c r="H50">
         <v>0.989463857799599</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I50" s="4">
+        <v>6.6093999999999999</v>
+      </c>
+      <c r="J50">
+        <v>2.2842206680248701E-2</v>
+      </c>
+      <c r="K50">
+        <v>19.670054142798964</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="M50">
+        <v>1.4637016884571299</v>
+      </c>
+      <c r="N50">
+        <v>1.023379198764E-2</v>
+      </c>
+      <c r="O50">
+        <v>6.6844642728411729</v>
+      </c>
+      <c r="P50">
+        <v>29.180140522687566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>43190</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="G51">
-        <v>18.176873708256274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>43281</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="G52">
-        <v>22.105530587871616</v>
       </c>
     </row>
   </sheetData>
@@ -29494,8 +30791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29528,30 +30825,30 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>40633</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" s="11">
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>22.4</v>
@@ -29573,8 +30870,8 @@
       <c r="A4" s="6">
         <v>40724</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" s="11">
+        <v>1</v>
       </c>
       <c r="C4" s="4">
         <v>22.6</v>
@@ -29596,7 +30893,7 @@
       <c r="A5" s="6">
         <v>40816</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>0</v>
       </c>
       <c r="C5" s="4">
@@ -29619,7 +30916,7 @@
       <c r="A6" s="6">
         <v>40908</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>0</v>
       </c>
       <c r="C6" s="4">
@@ -29642,7 +30939,7 @@
       <c r="A7" s="6">
         <v>40999</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>0</v>
       </c>
       <c r="C7" s="4">
@@ -29665,7 +30962,7 @@
       <c r="A8" s="6">
         <v>41090</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>0</v>
       </c>
       <c r="C8" s="4">
@@ -29688,7 +30985,7 @@
       <c r="A9" s="6">
         <v>41182</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="11">
         <v>0</v>
       </c>
       <c r="C9" s="4">
@@ -29711,7 +31008,7 @@
       <c r="A10" s="6">
         <v>41274</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="11">
         <v>0</v>
       </c>
       <c r="C10" s="4">
@@ -29734,7 +31031,7 @@
       <c r="A11" s="6">
         <v>41364</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="11">
         <v>0</v>
       </c>
       <c r="C11" s="4">
@@ -29757,7 +31054,7 @@
       <c r="A12" s="6">
         <v>41455</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="11">
         <v>0</v>
       </c>
       <c r="C12" s="4">
@@ -29780,7 +31077,7 @@
       <c r="A13" s="6">
         <v>41547</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11">
         <v>0</v>
       </c>
       <c r="C13" s="4">
@@ -29803,7 +31100,7 @@
       <c r="A14" s="6">
         <v>41639</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="11">
         <v>0</v>
       </c>
       <c r="C14" s="4">
@@ -29826,8 +31123,8 @@
       <c r="A15" s="6">
         <v>41729</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" s="11">
+        <v>1</v>
       </c>
       <c r="C15" s="4">
         <v>20.8</v>
@@ -29849,8 +31146,8 @@
       <c r="A16" s="6">
         <v>41820</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" s="11">
+        <v>1</v>
       </c>
       <c r="C16" s="4">
         <v>20.66</v>
@@ -29872,8 +31169,8 @@
       <c r="A17" s="6">
         <v>41912</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" s="11">
+        <v>1</v>
       </c>
       <c r="C17" s="4">
         <v>19.78</v>
@@ -29895,8 +31192,8 @@
       <c r="A18" s="6">
         <v>42004</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" s="11">
+        <v>1</v>
       </c>
       <c r="C18" s="4">
         <v>17.59</v>
@@ -29918,8 +31215,8 @@
       <c r="A19" s="6">
         <v>42094</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" s="11">
+        <v>1</v>
       </c>
       <c r="C19" s="4">
         <v>17.760000000000002</v>
@@ -29941,8 +31238,8 @@
       <c r="A20" s="6">
         <v>42185</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" s="11">
+        <v>1</v>
       </c>
       <c r="C20" s="4">
         <v>17.260000000000002</v>
@@ -29964,8 +31261,8 @@
       <c r="A21" s="6">
         <v>42277</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" s="11">
+        <v>1</v>
       </c>
       <c r="C21" s="4">
         <v>16.68</v>
@@ -29987,8 +31284,8 @@
       <c r="A22" s="6">
         <v>42369</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" s="11">
+        <v>1</v>
       </c>
       <c r="C22" s="4">
         <v>14.98</v>
@@ -30010,7 +31307,7 @@
       <c r="A23" s="6">
         <v>42460</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="11">
         <v>0</v>
       </c>
       <c r="C23" s="4">
@@ -30033,7 +31330,7 @@
       <c r="A24" s="6">
         <v>42551</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="11">
         <v>0</v>
       </c>
       <c r="C24" s="4">
@@ -30056,7 +31353,7 @@
       <c r="A25" s="6">
         <v>42643</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="11">
         <v>0</v>
       </c>
       <c r="C25" s="4">
@@ -30079,7 +31376,7 @@
       <c r="A26" s="6">
         <v>42735</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="11">
         <v>0</v>
       </c>
       <c r="C26" s="4">
@@ -30102,7 +31399,7 @@
       <c r="A27" s="6">
         <v>42825</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="11">
         <v>0</v>
       </c>
       <c r="C27" s="4">
@@ -30125,7 +31422,7 @@
       <c r="A28" s="6">
         <v>42916</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="11">
         <v>0</v>
       </c>
       <c r="C28" s="4">
@@ -30148,7 +31445,7 @@
       <c r="A29" s="6">
         <v>43008</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="11">
         <v>0</v>
       </c>
       <c r="C29" s="4">
@@ -30171,7 +31468,7 @@
       <c r="A30" s="6">
         <v>43100</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="11">
         <v>0</v>
       </c>
       <c r="C30" s="4">
